--- a/capiq_data/in_process_data/IQ21171.xlsx
+++ b/capiq_data/in_process_data/IQ21171.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A3F5B-61AF-4C7E-92DF-6044F4C3876D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D062C-D0F1-4AA0-A749-10220BD0D3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9a63fbd2-4219-4e7d-818a-7e10d7f94943"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"a74a65e7-7c41-4d0f-bbc3-29c453e8c9ca"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>73</v>
+        <v>26.562000000000001</v>
       </c>
       <c r="D2">
-        <v>878</v>
+        <v>457.56</v>
       </c>
       <c r="E2">
-        <v>481</v>
+        <v>253.65899999999999</v>
       </c>
       <c r="F2">
-        <v>703</v>
+        <v>353.74099999999999</v>
       </c>
       <c r="G2">
-        <v>2024</v>
+        <v>2314.5120000000002</v>
       </c>
       <c r="H2">
-        <v>4979</v>
+        <v>3179.1289999999999</v>
       </c>
       <c r="I2">
-        <v>199</v>
+        <v>118.23399999999999</v>
       </c>
       <c r="J2">
-        <v>998</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>39.939</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,81 +892,81 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1504</v>
+        <v>945.10900000000004</v>
       </c>
       <c r="O2">
-        <v>2707</v>
+        <v>963.89499999999998</v>
       </c>
       <c r="P2">
-        <v>998</v>
+        <v>39.939</v>
       </c>
       <c r="Q2">
-        <v>321</v>
+        <v>98.688000000000002</v>
       </c>
       <c r="R2">
-        <v>40574</v>
+        <v>36922</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2272</v>
+        <v>2215.2339999999999</v>
       </c>
       <c r="U2">
-        <v>433</v>
+        <v>377.40699999999998</v>
       </c>
       <c r="V2">
-        <v>258</v>
+        <v>83.876999999999995</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-455</v>
+        <v>27.782</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>569</v>
+        <v>-6.8659999999999997</v>
       </c>
       <c r="AA2">
-        <v>73</v>
+        <v>26.562000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>688</v>
+        <v>-14.301</v>
       </c>
       <c r="D3">
-        <v>1848</v>
+        <v>425.21</v>
       </c>
       <c r="E3">
-        <v>266</v>
+        <v>103.31</v>
       </c>
       <c r="F3">
-        <v>1684</v>
+        <v>347.697</v>
       </c>
       <c r="G3">
-        <v>2644</v>
+        <v>2290.9490000000001</v>
       </c>
       <c r="H3">
-        <v>5567</v>
+        <v>3091.9160000000002</v>
       </c>
       <c r="I3">
-        <v>196</v>
+        <v>74.709000000000003</v>
       </c>
       <c r="J3">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>37.884</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,51 +975,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2044</v>
+        <v>886.08900000000006</v>
       </c>
       <c r="O3">
-        <v>2746</v>
+        <v>901.875</v>
       </c>
       <c r="P3">
-        <v>998</v>
+        <v>37.884</v>
       </c>
       <c r="Q3">
-        <v>936</v>
+        <v>60.197000000000003</v>
       </c>
       <c r="R3">
-        <v>40663</v>
+        <v>37011</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2821</v>
+        <v>2190.0410000000002</v>
       </c>
       <c r="U3">
-        <v>1369</v>
+        <v>437.60399999999998</v>
       </c>
       <c r="V3">
-        <v>1138</v>
+        <v>158.387</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-184</v>
+        <v>4.3040000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>8</v>
+        <v>-31.991</v>
       </c>
       <c r="AA3">
-        <v>688</v>
+        <v>-14.301</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
@@ -911,25 +1031,25 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>171</v>
+        <v>26.777999999999999</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2254</v>
+        <v>2048.7570000000001</v>
       </c>
       <c r="H4">
-        <v>5110</v>
+        <v>2862.2730000000001</v>
       </c>
       <c r="I4">
-        <v>129</v>
+        <v>62.994</v>
       </c>
       <c r="J4">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>38.671999999999997</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,28 +1058,28 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1805</v>
+        <v>688.79700000000003</v>
       </c>
       <c r="O4">
-        <v>2494</v>
+        <v>700.947</v>
       </c>
       <c r="P4">
-        <v>999</v>
+        <v>38.671999999999997</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>40755</v>
+        <v>37103</v>
       </c>
       <c r="S4">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="T4">
-        <v>2616</v>
+        <v>2161.326</v>
       </c>
       <c r="U4">
-        <v>722</v>
+        <v>94.301000000000002</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -982,37 +1102,37 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-64</v>
+        <v>-92.427000000000007</v>
       </c>
       <c r="D5">
-        <v>575</v>
+        <v>158.31800000000001</v>
       </c>
       <c r="E5">
-        <v>166</v>
+        <v>43.024000000000001</v>
       </c>
       <c r="F5">
-        <v>411</v>
+        <v>98.313000000000002</v>
       </c>
       <c r="G5">
-        <v>1880</v>
+        <v>2120.3339999999998</v>
       </c>
       <c r="H5">
-        <v>4683</v>
+        <v>2854</v>
       </c>
       <c r="I5">
-        <v>168</v>
+        <v>83.54</v>
       </c>
       <c r="J5">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>125.479</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1636</v>
+        <v>786.83699999999999</v>
       </c>
       <c r="O5">
-        <v>2322</v>
+        <v>798.99</v>
       </c>
       <c r="P5">
-        <v>999</v>
+        <v>125.479</v>
       </c>
       <c r="Q5">
-        <v>-389</v>
+        <v>0.747</v>
       </c>
       <c r="R5">
-        <v>40847</v>
+        <v>37195</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2361</v>
+        <v>2055.0100000000002</v>
       </c>
       <c r="U5">
-        <v>333</v>
+        <v>415.04399999999998</v>
       </c>
       <c r="V5">
-        <v>-110</v>
+        <v>-58.359000000000002</v>
       </c>
       <c r="W5">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-226</v>
+        <v>1.254</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-20</v>
+        <v>71.334999999999994</v>
       </c>
       <c r="AA5">
-        <v>-64</v>
+        <v>-92.427000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>118</v>
+        <v>119.86799999999999</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>475.90800000000002</v>
       </c>
       <c r="E6">
-        <v>592</v>
+        <v>262.51299999999998</v>
       </c>
       <c r="F6">
-        <v>797</v>
+        <v>369.65800000000002</v>
       </c>
       <c r="G6">
-        <v>2174</v>
+        <v>2445.8629999999998</v>
       </c>
       <c r="H6">
-        <v>4962</v>
+        <v>3150.8780000000002</v>
       </c>
       <c r="I6">
-        <v>212</v>
+        <v>100.44</v>
       </c>
       <c r="J6">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>107.715</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,161 +1224,161 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2053</v>
+        <v>925.49900000000002</v>
       </c>
       <c r="O6">
-        <v>2739</v>
+        <v>937.74800000000005</v>
       </c>
       <c r="P6">
-        <v>999</v>
+        <v>107.715</v>
       </c>
       <c r="Q6">
-        <v>-56</v>
+        <v>53.442999999999998</v>
       </c>
       <c r="R6">
-        <v>40939</v>
+        <v>37287</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2223</v>
+        <v>2213.13</v>
       </c>
       <c r="U6">
-        <v>277</v>
+        <v>488.55500000000001</v>
       </c>
       <c r="V6">
-        <v>260</v>
+        <v>39.509</v>
       </c>
       <c r="W6">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-300</v>
+        <v>-18.239999999999998</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>32</v>
+        <v>49.457000000000001</v>
       </c>
       <c r="AA6">
-        <v>118</v>
+        <v>119.86799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>734</v>
+        <v>144.48099999999999</v>
       </c>
       <c r="D7">
-        <v>1926</v>
+        <v>491.15199999999999</v>
       </c>
       <c r="E7">
-        <v>294</v>
+        <v>69.215999999999994</v>
       </c>
       <c r="F7">
-        <v>1732</v>
+        <v>423.71100000000001</v>
       </c>
       <c r="G7">
-        <v>2330</v>
+        <v>2555.77</v>
       </c>
       <c r="H7">
-        <v>5116</v>
+        <v>3223.498</v>
       </c>
       <c r="I7">
-        <v>209</v>
+        <v>77.31</v>
       </c>
       <c r="J7">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>84.456000000000003</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1587</v>
+        <v>902.27300000000002</v>
       </c>
       <c r="O7">
-        <v>2281</v>
+        <v>913.48199999999997</v>
       </c>
       <c r="P7">
-        <v>499</v>
+        <v>84.456000000000003</v>
       </c>
       <c r="Q7">
-        <v>582</v>
+        <v>-14.749000000000001</v>
       </c>
       <c r="R7">
-        <v>41029</v>
+        <v>37376</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2835</v>
+        <v>2310.0160000000001</v>
       </c>
       <c r="U7">
-        <v>859</v>
+        <v>454.791</v>
       </c>
       <c r="V7">
-        <v>1278</v>
+        <v>369.95400000000001</v>
       </c>
       <c r="W7">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-679</v>
+        <v>-72.087000000000003</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>16</v>
+        <v>-292.93099999999998</v>
       </c>
       <c r="AA7">
-        <v>734</v>
+        <v>144.48099999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>-31.762</v>
       </c>
       <c r="D8">
-        <v>308</v>
+        <v>186.85</v>
       </c>
       <c r="E8">
-        <v>142</v>
+        <v>51.999000000000002</v>
       </c>
       <c r="F8">
-        <v>293</v>
+        <v>131.173</v>
       </c>
       <c r="G8">
-        <v>1523</v>
+        <v>1954.672</v>
       </c>
       <c r="H8">
-        <v>4684</v>
+        <v>2928.0050000000001</v>
       </c>
       <c r="I8">
-        <v>139</v>
+        <v>71.069000000000003</v>
       </c>
       <c r="J8">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,164 +1390,164 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1265</v>
+        <v>679.774</v>
       </c>
       <c r="O8">
-        <v>1940</v>
+        <v>712.36599999999999</v>
       </c>
       <c r="P8">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>-466</v>
+        <v>302.59699999999998</v>
       </c>
       <c r="R8">
-        <v>41121</v>
+        <v>37468</v>
       </c>
       <c r="S8">
-        <v>8500</v>
+        <v>6500</v>
       </c>
       <c r="T8">
-        <v>2744</v>
+        <v>2215.6390000000001</v>
       </c>
       <c r="U8">
-        <v>393</v>
+        <v>408.94799999999998</v>
       </c>
       <c r="V8">
-        <v>-182</v>
+        <v>218.40600000000001</v>
       </c>
       <c r="W8">
-        <v>-44</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-139</v>
+        <v>-107.045</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>321</v>
+        <v>498.28199999999998</v>
       </c>
       <c r="AA8">
-        <v>4</v>
+        <v>-31.762</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>-19</v>
+        <v>-54.685000000000002</v>
       </c>
       <c r="D9">
-        <v>562</v>
+        <v>212.87200000000001</v>
       </c>
       <c r="E9">
-        <v>184</v>
+        <v>65.352999999999994</v>
       </c>
       <c r="F9">
-        <v>427</v>
+        <v>142.958</v>
       </c>
       <c r="G9">
-        <v>1334</v>
+        <v>1577.3009999999999</v>
       </c>
       <c r="H9">
-        <v>4494</v>
+        <v>2679.7469999999998</v>
       </c>
       <c r="I9">
-        <v>167</v>
+        <v>80.846999999999994</v>
       </c>
       <c r="J9">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.026</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.317</v>
       </c>
       <c r="N9">
-        <v>1074</v>
+        <v>737.75199999999995</v>
       </c>
       <c r="O9">
-        <v>1749</v>
+        <v>752.13599999999997</v>
       </c>
       <c r="P9">
-        <v>499</v>
+        <v>18.026</v>
       </c>
       <c r="Q9">
-        <v>-177</v>
+        <v>-125.83199999999999</v>
       </c>
       <c r="R9">
-        <v>41213</v>
+        <v>37560</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2745</v>
+        <v>1927.6110000000001</v>
       </c>
       <c r="U9">
-        <v>216</v>
+        <v>308.17599999999999</v>
       </c>
       <c r="V9">
-        <v>-145</v>
+        <v>43.31</v>
       </c>
       <c r="W9">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-33</v>
+        <v>-257.33800000000002</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>290.387</v>
       </c>
       <c r="AA9">
-        <v>-19</v>
+        <v>-54.685000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>71</v>
+        <v>128.43</v>
       </c>
       <c r="D10">
-        <v>884</v>
+        <v>558.07600000000002</v>
       </c>
       <c r="E10">
-        <v>541</v>
+        <v>244.43700000000001</v>
       </c>
       <c r="F10">
-        <v>723</v>
+        <v>442.29300000000001</v>
       </c>
       <c r="G10">
-        <v>1912</v>
+        <v>1728.0630000000001</v>
       </c>
       <c r="H10">
-        <v>5089</v>
+        <v>2840.63</v>
       </c>
       <c r="I10">
-        <v>213</v>
+        <v>107.18899999999999</v>
       </c>
       <c r="J10">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1596</v>
+        <v>830.20600000000002</v>
       </c>
       <c r="O10">
-        <v>2297</v>
+        <v>842.97199999999998</v>
       </c>
       <c r="P10">
-        <v>499</v>
+        <v>2.7170000000000001</v>
       </c>
       <c r="Q10">
-        <v>183</v>
+        <v>90.998999999999995</v>
       </c>
       <c r="R10">
-        <v>41305</v>
+        <v>37652</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2792</v>
+        <v>1997.6579999999999</v>
       </c>
       <c r="U10">
-        <v>399</v>
+        <v>379.91500000000002</v>
       </c>
       <c r="V10">
-        <v>256</v>
+        <v>386.31299999999999</v>
       </c>
       <c r="W10">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-71</v>
+        <v>-77.222999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>60</v>
+        <v>-178.55699999999999</v>
       </c>
       <c r="AA10">
-        <v>71</v>
+        <v>128.43</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>822</v>
+        <v>293.97699999999998</v>
       </c>
       <c r="D11">
-        <v>2091</v>
+        <v>634.69799999999998</v>
       </c>
       <c r="E11">
-        <v>312</v>
+        <v>119.47499999999999</v>
       </c>
       <c r="F11">
-        <v>1951</v>
+        <v>545.99199999999996</v>
       </c>
       <c r="G11">
-        <v>2700</v>
+        <v>2066.8589999999999</v>
       </c>
       <c r="H11">
-        <v>5810</v>
+        <v>3182.2489999999998</v>
       </c>
       <c r="I11">
-        <v>231</v>
+        <v>73.406000000000006</v>
       </c>
       <c r="J11">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1546</v>
+        <v>910.93499999999995</v>
       </c>
       <c r="O11">
-        <v>2240</v>
+        <v>922.74199999999996</v>
       </c>
       <c r="P11">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1013</v>
+        <v>70.364000000000004</v>
       </c>
       <c r="R11">
-        <v>41394</v>
+        <v>37741</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3570</v>
+        <v>2259.5070000000001</v>
       </c>
       <c r="U11">
-        <v>1412</v>
+        <v>450.279</v>
       </c>
       <c r="V11">
-        <v>1449</v>
+        <v>490.14699999999999</v>
       </c>
       <c r="W11">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-90</v>
+        <v>-42.293999999999997</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-306</v>
+        <v>-357.82100000000003</v>
       </c>
       <c r="AA11">
-        <v>822</v>
+        <v>293.97699999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-16</v>
+        <v>-24.687999999999999</v>
       </c>
       <c r="D12">
-        <v>634</v>
+        <v>245.09700000000001</v>
       </c>
       <c r="E12">
-        <v>130</v>
+        <v>88.156000000000006</v>
       </c>
       <c r="F12">
-        <v>511</v>
+        <v>175.536</v>
       </c>
       <c r="G12">
-        <v>2396</v>
+        <v>1668.87</v>
       </c>
       <c r="H12">
-        <v>5486</v>
+        <v>2790.2669999999998</v>
       </c>
       <c r="I12">
-        <v>137</v>
+        <v>56.786000000000001</v>
       </c>
       <c r="J12">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1280</v>
+        <v>796.16499999999996</v>
       </c>
       <c r="O12">
-        <v>1955</v>
+        <v>825.43</v>
       </c>
       <c r="P12">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-403</v>
+        <v>-274.43599999999998</v>
       </c>
       <c r="R12">
-        <v>41486</v>
+        <v>37833</v>
       </c>
       <c r="S12">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="T12">
-        <v>3531</v>
+        <v>1964.837</v>
       </c>
       <c r="U12">
-        <v>1009</v>
+        <v>170.04300000000001</v>
       </c>
       <c r="V12">
-        <v>-194</v>
+        <v>-8.2100000000000009</v>
       </c>
       <c r="W12">
-        <v>-51</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-68</v>
+        <v>-284.90800000000002</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-77</v>
+        <v>52.902999999999999</v>
       </c>
       <c r="AA12">
-        <v>-16</v>
+        <v>-24.687999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-11</v>
+        <v>-53.965000000000003</v>
       </c>
       <c r="D13">
-        <v>622</v>
+        <v>239.322</v>
       </c>
       <c r="E13">
-        <v>137</v>
+        <v>76.828000000000003</v>
       </c>
       <c r="F13">
-        <v>485</v>
+        <v>165.958</v>
       </c>
       <c r="G13">
-        <v>1950</v>
+        <v>1366.1969999999999</v>
       </c>
       <c r="H13">
-        <v>4068</v>
+        <v>2599.683</v>
       </c>
       <c r="I13">
-        <v>168</v>
+        <v>84.632999999999996</v>
       </c>
       <c r="J13">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1153</v>
+        <v>720.28399999999999</v>
       </c>
       <c r="O13">
-        <v>1844</v>
+        <v>751.34199999999998</v>
       </c>
       <c r="P13">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-592</v>
+        <v>-22.334</v>
       </c>
       <c r="R13">
-        <v>41578</v>
+        <v>37925</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2224</v>
+        <v>1848.3409999999999</v>
       </c>
       <c r="U13">
-        <v>417</v>
+        <v>147.607</v>
       </c>
       <c r="V13">
-        <v>-190</v>
+        <v>-76.2</v>
       </c>
       <c r="W13">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-1350</v>
+        <v>-69.343999999999994</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-13</v>
+        <v>264.37400000000002</v>
       </c>
       <c r="AA13">
-        <v>-11</v>
+        <v>-53.965000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>-37</v>
+        <v>149.066</v>
       </c>
       <c r="D14">
-        <v>782</v>
+        <v>633.37099999999998</v>
       </c>
       <c r="E14">
-        <v>435</v>
+        <v>283.959</v>
       </c>
       <c r="F14">
-        <v>612</v>
+        <v>519.39099999999996</v>
       </c>
       <c r="G14">
-        <v>2541</v>
+        <v>1640.6969999999999</v>
       </c>
       <c r="H14">
-        <v>4718</v>
+        <v>2873.1379999999999</v>
       </c>
       <c r="I14">
-        <v>225</v>
+        <v>104.44799999999999</v>
       </c>
       <c r="J14">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1885,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-12.35</v>
       </c>
       <c r="N14">
-        <v>1790</v>
+        <v>944.15899999999999</v>
       </c>
       <c r="O14">
-        <v>2483</v>
+        <v>963.02300000000002</v>
       </c>
       <c r="P14">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>208</v>
+        <v>-59.552999999999997</v>
       </c>
       <c r="R14">
-        <v>41670</v>
+        <v>38017</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2235</v>
+        <v>1910.115</v>
       </c>
       <c r="U14">
-        <v>625</v>
+        <v>87.831000000000003</v>
       </c>
       <c r="V14">
-        <v>332</v>
+        <v>210.09100000000001</v>
       </c>
       <c r="W14">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>5</v>
+        <v>-115.78400000000001</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-15</v>
+        <v>-124.268</v>
       </c>
       <c r="AA14">
-        <v>-37</v>
+        <v>149.066</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>984</v>
+        <v>264.03300000000002</v>
       </c>
       <c r="D15">
-        <v>2388</v>
+        <v>709.83799999999997</v>
       </c>
       <c r="E15">
-        <v>277</v>
+        <v>138.446</v>
       </c>
       <c r="F15">
-        <v>2224</v>
+        <v>614.923</v>
       </c>
       <c r="G15">
-        <v>3438</v>
+        <v>1727.442</v>
       </c>
       <c r="H15">
-        <v>5610</v>
+        <v>2963.8679999999999</v>
       </c>
       <c r="I15">
-        <v>193</v>
+        <v>77.905000000000001</v>
       </c>
       <c r="J15">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,81 +1968,81 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-0.58699999999999997</v>
       </c>
       <c r="N15">
-        <v>1683</v>
+        <v>1000.747</v>
       </c>
       <c r="O15">
-        <v>2372</v>
+        <v>1018.514</v>
       </c>
       <c r="P15">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>949</v>
+        <v>-69.352999999999994</v>
       </c>
       <c r="R15">
-        <v>41759</v>
+        <v>38107</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3238</v>
+        <v>1945.354</v>
       </c>
       <c r="U15">
-        <v>1574</v>
+        <v>18.52</v>
       </c>
       <c r="V15">
-        <v>1388</v>
+        <v>473.02300000000002</v>
       </c>
       <c r="W15">
-        <v>-54</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-32</v>
+        <v>-232.62700000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-353</v>
+        <v>-368.20800000000003</v>
       </c>
       <c r="AA15">
-        <v>984</v>
+        <v>264.03300000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-29</v>
+        <v>-42.103999999999999</v>
       </c>
       <c r="D16">
-        <v>451</v>
+        <v>219.69300000000001</v>
       </c>
       <c r="E16">
-        <v>115</v>
+        <v>81.614999999999995</v>
       </c>
       <c r="F16">
-        <v>319</v>
+        <v>148.92099999999999</v>
       </c>
       <c r="G16">
-        <v>2621</v>
+        <v>1528.7840000000001</v>
       </c>
       <c r="H16">
-        <v>5201</v>
+        <v>2730.741</v>
       </c>
       <c r="I16">
-        <v>145</v>
+        <v>68.302999999999997</v>
       </c>
       <c r="J16">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1421</v>
+        <v>891.928</v>
       </c>
       <c r="O16">
-        <v>2123</v>
+        <v>908.322</v>
       </c>
       <c r="P16">
-        <v>499</v>
+        <v>5.7709999999999999</v>
       </c>
       <c r="Q16">
-        <v>-725</v>
+        <v>9.8940000000000001</v>
       </c>
       <c r="R16">
-        <v>41851</v>
+        <v>38199</v>
       </c>
       <c r="S16">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="T16">
-        <v>3078</v>
+        <v>1822.4190000000001</v>
       </c>
       <c r="U16">
-        <v>849</v>
+        <v>25.992000000000001</v>
       </c>
       <c r="V16">
-        <v>-84</v>
+        <v>-28.050999999999998</v>
       </c>
       <c r="W16">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-174</v>
+        <v>-92.26</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>5.7709999999999999</v>
       </c>
       <c r="Z16">
-        <v>-14</v>
+        <v>163.77199999999999</v>
       </c>
       <c r="AA16">
-        <v>-29</v>
+        <v>-42.103999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>-84</v>
+        <v>-46.136000000000003</v>
       </c>
       <c r="D17">
-        <v>612</v>
+        <v>252.77600000000001</v>
       </c>
       <c r="E17">
-        <v>140</v>
+        <v>69.122</v>
       </c>
       <c r="F17">
-        <v>460</v>
+        <v>177.38300000000001</v>
       </c>
       <c r="G17">
-        <v>2437</v>
+        <v>1272.1199999999999</v>
       </c>
       <c r="H17">
-        <v>5038</v>
+        <v>2455.5189999999998</v>
       </c>
       <c r="I17">
-        <v>198</v>
+        <v>83.525999999999996</v>
       </c>
       <c r="J17">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-0.624</v>
       </c>
       <c r="N17">
-        <v>1360</v>
+        <v>792.89300000000003</v>
       </c>
       <c r="O17">
-        <v>2111</v>
+        <v>809.89</v>
       </c>
       <c r="P17">
-        <v>499</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="Q17">
-        <v>-307</v>
+        <v>24.798999999999999</v>
       </c>
       <c r="R17">
-        <v>41943</v>
+        <v>38291</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2927</v>
+        <v>1645.6289999999999</v>
       </c>
       <c r="U17">
-        <v>542</v>
+        <v>52.008000000000003</v>
       </c>
       <c r="V17">
-        <v>-118</v>
+        <v>-87.385999999999996</v>
       </c>
       <c r="W17">
-        <v>-74</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-123</v>
+        <v>-140.22800000000001</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>5.1440000000000001</v>
       </c>
       <c r="Z17">
-        <v>11</v>
+        <v>270.762</v>
       </c>
       <c r="AA17">
-        <v>-84</v>
+        <v>-46.136000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-66</v>
+        <v>147.25200000000001</v>
       </c>
       <c r="D18">
-        <v>749</v>
+        <v>648.24400000000003</v>
       </c>
       <c r="E18">
-        <v>459</v>
+        <v>307.76499999999999</v>
       </c>
       <c r="F18">
-        <v>568</v>
+        <v>531.81200000000001</v>
       </c>
       <c r="G18">
-        <v>2578</v>
+        <v>1625.3820000000001</v>
       </c>
       <c r="H18">
-        <v>5245</v>
+        <v>2775.819</v>
       </c>
       <c r="I18">
-        <v>273</v>
+        <v>102.28400000000001</v>
       </c>
       <c r="J18">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,81 +2217,81 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-0.71699999999999997</v>
       </c>
       <c r="N18">
-        <v>2109</v>
+        <v>1044.8510000000001</v>
       </c>
       <c r="O18">
-        <v>2891</v>
+        <v>1061.019</v>
       </c>
       <c r="P18">
-        <v>499</v>
+        <v>5.0819999999999999</v>
       </c>
       <c r="Q18">
-        <v>-60</v>
+        <v>-15.923999999999999</v>
       </c>
       <c r="R18">
-        <v>42035</v>
+        <v>38383</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2354</v>
+        <v>1714.8</v>
       </c>
       <c r="U18">
-        <v>482</v>
+        <v>36.566000000000003</v>
       </c>
       <c r="V18">
-        <v>365</v>
+        <v>220.23599999999999</v>
       </c>
       <c r="W18">
-        <v>-69</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-435</v>
+        <v>-84.953999999999994</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>5.0819999999999999</v>
       </c>
       <c r="Z18">
-        <v>156</v>
+        <v>-143.34700000000001</v>
       </c>
       <c r="AA18">
-        <v>-66</v>
+        <v>147.25200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>300.50700000000001</v>
       </c>
       <c r="D19">
-        <v>2135</v>
+        <v>834.86400000000003</v>
       </c>
       <c r="E19">
-        <v>210</v>
+        <v>141.72800000000001</v>
       </c>
       <c r="F19">
-        <v>1941</v>
+        <v>732.89400000000001</v>
       </c>
       <c r="G19">
-        <v>2867</v>
+        <v>1891.04</v>
       </c>
       <c r="H19">
-        <v>5295</v>
+        <v>3028.7840000000001</v>
       </c>
       <c r="I19">
-        <v>286</v>
+        <v>96.174000000000007</v>
       </c>
       <c r="J19">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2300,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-1.552</v>
       </c>
       <c r="N19">
-        <v>2126</v>
+        <v>1169.914</v>
       </c>
       <c r="O19">
-        <v>2974</v>
+        <v>1187.6189999999999</v>
       </c>
       <c r="P19">
-        <v>499</v>
+        <v>4.3920000000000003</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>85.891999999999996</v>
       </c>
       <c r="R19">
-        <v>42124</v>
+        <v>38472</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2321</v>
+        <v>1841.165</v>
       </c>
       <c r="U19">
-        <v>1193</v>
+        <v>122.35299999999999</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>575.61300000000006</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>-180.97300000000001</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1.6919999999999999</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-293.358</v>
       </c>
       <c r="AA19">
-        <v>501</v>
+        <v>300.50700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>-19.995999999999999</v>
       </c>
       <c r="D20">
-        <v>696</v>
+        <v>301.81900000000002</v>
       </c>
       <c r="E20">
-        <v>91</v>
+        <v>86.125</v>
       </c>
       <c r="F20">
-        <v>528</v>
+        <v>222.96100000000001</v>
       </c>
       <c r="G20">
-        <v>2560</v>
+        <v>1614.3389999999999</v>
       </c>
       <c r="H20">
-        <v>4968</v>
+        <v>2716.451</v>
       </c>
       <c r="I20">
-        <v>190</v>
+        <v>65.811999999999998</v>
       </c>
       <c r="J20">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,161 +2386,161 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1744</v>
+        <v>1003.404</v>
       </c>
       <c r="O20">
-        <v>2636</v>
+        <v>1020.952</v>
       </c>
       <c r="P20">
-        <v>500</v>
+        <v>3.718</v>
       </c>
       <c r="Q20">
-        <v>-385</v>
+        <v>-36.917000000000002</v>
       </c>
       <c r="R20">
-        <v>42216</v>
+        <v>38564</v>
       </c>
       <c r="S20">
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="T20">
-        <v>2332</v>
+        <v>1695.499</v>
       </c>
       <c r="U20">
-        <v>808</v>
+        <v>83.841999999999999</v>
       </c>
       <c r="V20">
-        <v>-218</v>
+        <v>-110.857</v>
       </c>
       <c r="W20">
-        <v>-71</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-71</v>
+        <v>-141.846</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>3.718</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>230.495</v>
       </c>
       <c r="AA20">
-        <v>14</v>
+        <v>-19.995999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-31</v>
+        <v>-45.804000000000002</v>
       </c>
       <c r="D21">
-        <v>713</v>
+        <v>304.07100000000003</v>
       </c>
       <c r="E21">
-        <v>124</v>
+        <v>73.225999999999999</v>
       </c>
       <c r="F21">
-        <v>553</v>
+        <v>212.392</v>
       </c>
       <c r="G21">
-        <v>1427</v>
+        <v>1341.7360000000001</v>
       </c>
       <c r="H21">
-        <v>3833</v>
+        <v>2442.366</v>
       </c>
       <c r="I21">
-        <v>178</v>
+        <v>96.927999999999997</v>
       </c>
       <c r="J21">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.63400000000000001</v>
       </c>
       <c r="N21">
-        <v>1887</v>
+        <v>924.82899999999995</v>
       </c>
       <c r="O21">
-        <v>2782</v>
+        <v>941.74300000000005</v>
       </c>
       <c r="P21">
-        <v>850</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="Q21">
-        <v>-334</v>
+        <v>-8.8680000000000003</v>
       </c>
       <c r="R21">
-        <v>42308</v>
+        <v>38656</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>1051</v>
+        <v>1500.623</v>
       </c>
       <c r="U21">
-        <v>474</v>
+        <v>74.974000000000004</v>
       </c>
       <c r="V21">
-        <v>-188</v>
+        <v>-83.778999999999996</v>
       </c>
       <c r="W21">
-        <v>-82</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-961</v>
+        <v>-173.02699999999999</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>3.0190000000000001</v>
       </c>
       <c r="Z21">
-        <v>887</v>
+        <v>286.72500000000002</v>
       </c>
       <c r="AA21">
-        <v>-31</v>
+        <v>-45.804000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>182.97300000000001</v>
       </c>
       <c r="D22">
-        <v>923</v>
+        <v>742.70399999999995</v>
       </c>
       <c r="E22">
-        <v>512</v>
+        <v>319.49299999999999</v>
       </c>
       <c r="F22">
-        <v>730</v>
+        <v>607.572</v>
       </c>
       <c r="G22">
-        <v>1467</v>
+        <v>1716.163</v>
       </c>
       <c r="H22">
-        <v>4349</v>
+        <v>2694.2750000000001</v>
       </c>
       <c r="I22">
-        <v>286</v>
+        <v>126.042</v>
       </c>
       <c r="J22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2429,84 +2549,84 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
       <c r="N22">
-        <v>2349</v>
+        <v>1123.8579999999999</v>
       </c>
       <c r="O22">
-        <v>3708</v>
+        <v>1140.373</v>
       </c>
       <c r="P22">
-        <v>1245</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="Q22">
-        <v>-140</v>
+        <v>47.731999999999999</v>
       </c>
       <c r="R22">
-        <v>42400</v>
+        <v>38748</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>641</v>
+        <v>1553.902</v>
       </c>
       <c r="U22">
-        <v>334</v>
+        <v>122.706</v>
       </c>
       <c r="V22">
-        <v>317</v>
+        <v>170.46</v>
       </c>
       <c r="W22">
-        <v>-79</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-124</v>
+        <v>-161.91200000000001</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>-85.56</v>
       </c>
       <c r="AA22">
-        <v>24</v>
+        <v>182.97300000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>298.64800000000002</v>
       </c>
       <c r="D23">
-        <v>2304</v>
+        <v>952.60299999999995</v>
       </c>
       <c r="E23">
-        <v>214</v>
+        <v>144.94</v>
       </c>
       <c r="F23">
-        <v>2093</v>
+        <v>844.67200000000003</v>
       </c>
       <c r="G23">
-        <v>2311</v>
+        <v>1977.107</v>
       </c>
       <c r="H23">
-        <v>4940</v>
+        <v>2958.7860000000001</v>
       </c>
       <c r="I23">
-        <v>270</v>
+        <v>92.984999999999999</v>
       </c>
       <c r="J23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2865</v>
+        <v>1270.1420000000001</v>
       </c>
       <c r="O23">
-        <v>3692</v>
+        <v>1285.8510000000001</v>
       </c>
       <c r="P23">
-        <v>1000</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>130.26300000000001</v>
       </c>
       <c r="R23">
-        <v>42490</v>
+        <v>38837</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>1248</v>
+        <v>1672.9349999999999</v>
       </c>
       <c r="U23">
-        <v>1289</v>
+        <v>252.96899999999999</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>659.02700000000004</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-205.89500000000001</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-313.31099999999998</v>
       </c>
       <c r="AA23">
-        <v>1026</v>
+        <v>298.64800000000002</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-40</v>
+        <v>-18.853999999999999</v>
       </c>
       <c r="D24">
-        <v>754</v>
+        <v>293.63200000000001</v>
       </c>
       <c r="E24">
-        <v>108</v>
+        <v>88.123000000000005</v>
       </c>
       <c r="F24">
-        <v>588</v>
+        <v>229.83699999999999</v>
       </c>
       <c r="G24">
-        <v>1614</v>
+        <v>1817.03</v>
       </c>
       <c r="H24">
-        <v>4250</v>
+        <v>2770.027</v>
       </c>
       <c r="I24">
-        <v>184</v>
+        <v>68.546999999999997</v>
       </c>
       <c r="J24">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2251</v>
+        <v>1015.974</v>
       </c>
       <c r="O24">
-        <v>3089</v>
+        <v>1031.373</v>
       </c>
       <c r="P24">
-        <v>1000</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Q24">
-        <v>-651</v>
+        <v>-73.367999999999995</v>
       </c>
       <c r="R24">
-        <v>42582</v>
+        <v>38929</v>
       </c>
       <c r="S24">
-        <v>7900</v>
+        <v>7500</v>
       </c>
       <c r="T24">
-        <v>1161</v>
+        <v>1738.654</v>
       </c>
       <c r="U24">
-        <v>638</v>
+        <v>179.601</v>
       </c>
       <c r="V24">
-        <v>-281</v>
+        <v>-136.15799999999999</v>
       </c>
       <c r="W24">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>-155</v>
+        <v>62.012</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="Z24">
-        <v>-143</v>
+        <v>11.292999999999999</v>
       </c>
       <c r="AA24">
-        <v>-40</v>
+        <v>-18.853999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-30</v>
+        <v>-58.93</v>
       </c>
       <c r="D25">
-        <v>778</v>
+        <v>350.49299999999999</v>
       </c>
       <c r="E25">
-        <v>121</v>
+        <v>95.498999999999995</v>
       </c>
       <c r="F25">
-        <v>598</v>
+        <v>252.286</v>
       </c>
       <c r="G25">
-        <v>1262</v>
+        <v>1817.8779999999999</v>
       </c>
       <c r="H25">
-        <v>3933</v>
+        <v>2835.1590000000001</v>
       </c>
       <c r="I25">
-        <v>165</v>
+        <v>97.853999999999999</v>
       </c>
       <c r="J25">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2181</v>
+        <v>1020.973</v>
       </c>
       <c r="O25">
-        <v>2997</v>
+        <v>1035.921</v>
       </c>
       <c r="P25">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-278</v>
+        <v>-13.526999999999999</v>
       </c>
       <c r="R25">
-        <v>42674</v>
+        <v>39021</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="T25">
-        <v>936</v>
+        <v>1799.2380000000001</v>
       </c>
       <c r="U25">
-        <v>360</v>
+        <v>166.07400000000001</v>
       </c>
       <c r="V25">
-        <v>-205</v>
+        <v>-136.70599999999999</v>
       </c>
       <c r="W25">
-        <v>-89</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-166</v>
+        <v>91.21</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>195</v>
+        <v>125.01</v>
       </c>
       <c r="AA25">
-        <v>-30</v>
+        <v>-58.93</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>13</v>
+        <v>145.36199999999999</v>
       </c>
       <c r="D26">
-        <v>1016</v>
+        <v>750.63699999999994</v>
       </c>
       <c r="E26">
-        <v>521</v>
+        <v>310.50599999999997</v>
       </c>
       <c r="F26">
-        <v>813</v>
+        <v>619.18299999999999</v>
       </c>
       <c r="G26">
-        <v>1679</v>
+        <v>2023.9939999999999</v>
       </c>
       <c r="H26">
-        <v>4373</v>
+        <v>3033.9989999999998</v>
       </c>
       <c r="I26">
-        <v>258</v>
+        <v>120.3</v>
       </c>
       <c r="J26">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,161 +2884,161 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2803</v>
+        <v>1190.9939999999999</v>
       </c>
       <c r="O26">
-        <v>3588</v>
+        <v>1209.3720000000001</v>
       </c>
       <c r="P26">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>32</v>
+        <v>120.254</v>
       </c>
       <c r="R26">
-        <v>42766</v>
+        <v>39113</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>8100</v>
       </c>
       <c r="T26">
-        <v>785</v>
+        <v>1824.627</v>
       </c>
       <c r="U26">
-        <v>392</v>
+        <v>286.32799999999997</v>
       </c>
       <c r="V26">
-        <v>292</v>
+        <v>243.137</v>
       </c>
       <c r="W26">
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-209</v>
+        <v>-156.98099999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>42.631</v>
       </c>
       <c r="AA26">
-        <v>13</v>
+        <v>145.36199999999999</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>964</v>
+        <v>367.21100000000001</v>
       </c>
       <c r="D27">
-        <v>2541</v>
+        <v>1139.145</v>
       </c>
       <c r="E27">
-        <v>245</v>
+        <v>190.77600000000001</v>
       </c>
       <c r="F27">
-        <v>2307</v>
+        <v>1008.163</v>
       </c>
       <c r="G27">
-        <v>2255</v>
+        <v>1933.2070000000001</v>
       </c>
       <c r="H27">
-        <v>4969</v>
+        <v>4213.3559999999998</v>
       </c>
       <c r="I27">
-        <v>269</v>
+        <v>129.34299999999999</v>
       </c>
       <c r="J27">
-        <v>450</v>
+        <v>997.77700000000004</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>2494</v>
+        <v>1229.6089999999999</v>
       </c>
       <c r="O27">
-        <v>3272</v>
+        <v>2269.067</v>
       </c>
       <c r="P27">
-        <v>500</v>
+        <v>997.77700000000004</v>
       </c>
       <c r="Q27">
-        <v>958</v>
+        <v>-21.754999999999999</v>
       </c>
       <c r="R27">
-        <v>42855</v>
+        <v>39202</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>8300</v>
       </c>
       <c r="T27">
-        <v>1697</v>
+        <v>1944.289</v>
       </c>
       <c r="U27">
-        <v>1350</v>
+        <v>264.57299999999998</v>
       </c>
       <c r="V27">
-        <v>1802</v>
+        <v>708.23400000000004</v>
       </c>
       <c r="W27">
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>-774</v>
+        <v>718.31200000000001</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AA27">
-        <v>964</v>
+        <v>367.21100000000001</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>-13.64</v>
       </c>
       <c r="D28">
-        <v>842</v>
+        <v>432.67200000000003</v>
       </c>
       <c r="E28">
-        <v>103</v>
+        <v>131.691</v>
       </c>
       <c r="F28">
-        <v>662</v>
+        <v>314.79500000000002</v>
       </c>
       <c r="G28">
-        <v>1415</v>
+        <v>1951.932</v>
       </c>
       <c r="H28">
-        <v>4068</v>
+        <v>4252.0259999999998</v>
       </c>
       <c r="I28">
-        <v>157</v>
+        <v>119.79900000000001</v>
       </c>
       <c r="J28">
-        <v>438</v>
+        <v>997.81899999999996</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1944</v>
+        <v>1160.1089999999999</v>
       </c>
       <c r="O28">
-        <v>2714</v>
+        <v>2215.6840000000002</v>
       </c>
       <c r="P28">
-        <v>488</v>
+        <v>1000.196</v>
       </c>
       <c r="Q28">
-        <v>-821</v>
+        <v>-9.3719999999999999</v>
       </c>
       <c r="R28">
-        <v>42947</v>
+        <v>39294</v>
       </c>
       <c r="S28">
         <v>8200</v>
       </c>
       <c r="T28">
-        <v>1354</v>
+        <v>2036.3420000000001</v>
       </c>
       <c r="U28">
-        <v>529</v>
+        <v>255.20099999999999</v>
       </c>
       <c r="V28">
-        <v>-290</v>
+        <v>-87.905000000000001</v>
       </c>
       <c r="W28">
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-483</v>
+        <v>81.319000000000003</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="Z28">
-        <v>-6</v>
+        <v>144.36000000000001</v>
       </c>
       <c r="AA28">
-        <v>24</v>
+        <v>-13.64</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>-20.803999999999998</v>
       </c>
       <c r="D29">
-        <v>910</v>
+        <v>444.93799999999999</v>
       </c>
       <c r="E29">
-        <v>116</v>
+        <v>144.41800000000001</v>
       </c>
       <c r="F29">
-        <v>714</v>
+        <v>313.73700000000002</v>
       </c>
       <c r="G29">
-        <v>1415</v>
+        <v>1651.8679999999999</v>
       </c>
       <c r="H29">
-        <v>4064</v>
+        <v>3951.6970000000001</v>
       </c>
       <c r="I29">
-        <v>220</v>
+        <v>159.94</v>
       </c>
       <c r="J29">
-        <v>425</v>
+        <v>997.86300000000006</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,84 +3130,84 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>2117</v>
+        <v>997.64599999999996</v>
       </c>
       <c r="O29">
-        <v>2861</v>
+        <v>2090.933</v>
       </c>
       <c r="P29">
-        <v>875</v>
+        <v>1000.035</v>
       </c>
       <c r="Q29">
-        <v>-53</v>
+        <v>-109.133</v>
       </c>
       <c r="R29">
-        <v>43039</v>
+        <v>39386</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1203</v>
+        <v>1860.7639999999999</v>
       </c>
       <c r="U29">
-        <v>529</v>
+        <v>146.06800000000001</v>
       </c>
       <c r="V29">
-        <v>-78</v>
+        <v>-161.363</v>
       </c>
       <c r="W29">
-        <v>-105</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>158</v>
+        <v>-187.154</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>2.1720000000000002</v>
       </c>
       <c r="Z29">
-        <v>-2</v>
+        <v>191.01599999999999</v>
       </c>
       <c r="AA29">
-        <v>-2</v>
+        <v>-20.803999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>183</v>
+        <v>115.247</v>
       </c>
       <c r="D30">
-        <v>1339</v>
+        <v>834.87400000000002</v>
       </c>
       <c r="E30">
-        <v>532</v>
+        <v>372.38499999999999</v>
       </c>
       <c r="F30">
-        <v>1096</v>
+        <v>675.15599999999995</v>
       </c>
       <c r="G30">
-        <v>1902</v>
+        <v>1909.2940000000001</v>
       </c>
       <c r="H30">
-        <v>4898</v>
+        <v>4371.8559999999998</v>
       </c>
       <c r="I30">
-        <v>343</v>
+        <v>144.16900000000001</v>
       </c>
       <c r="J30">
-        <v>413</v>
+        <v>997.90599999999995</v>
       </c>
       <c r="K30">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3032</v>
+        <v>1426.963</v>
       </c>
       <c r="O30">
-        <v>3741</v>
+        <v>2525.3960000000002</v>
       </c>
       <c r="P30">
-        <v>1103</v>
+        <v>999.85799999999995</v>
       </c>
       <c r="Q30">
-        <v>52</v>
+        <v>84.08</v>
       </c>
       <c r="R30">
-        <v>43131</v>
+        <v>39478</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1157</v>
+        <v>1846.46</v>
       </c>
       <c r="U30">
-        <v>478</v>
+        <v>230.148</v>
       </c>
       <c r="V30">
-        <v>252</v>
+        <v>198.90700000000001</v>
       </c>
       <c r="W30">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>100</v>
+        <v>-183.05</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1.952</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>252.245</v>
       </c>
       <c r="AA30">
-        <v>183</v>
+        <v>115.247</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1186</v>
+        <v>444.17899999999997</v>
       </c>
       <c r="D31">
-        <v>2912</v>
+        <v>1313.008</v>
       </c>
       <c r="E31">
-        <v>309</v>
+        <v>225.047</v>
       </c>
       <c r="F31">
-        <v>2612</v>
+        <v>1173.06</v>
       </c>
       <c r="G31">
-        <v>2845</v>
+        <v>1628.492</v>
       </c>
       <c r="H31">
-        <v>5787</v>
+        <v>4548.433</v>
       </c>
       <c r="I31">
-        <v>325</v>
+        <v>156.53100000000001</v>
       </c>
       <c r="J31">
-        <v>400</v>
+        <v>997.95100000000002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>2703</v>
+        <v>1389.595</v>
       </c>
       <c r="O31">
-        <v>3423</v>
+        <v>2491.8290000000002</v>
       </c>
       <c r="P31">
-        <v>450</v>
+        <v>999.71900000000005</v>
       </c>
       <c r="Q31">
-        <v>1133</v>
+        <v>241.35599999999999</v>
       </c>
       <c r="R31">
-        <v>43220</v>
+        <v>39568</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2364</v>
+        <v>2056.6039999999998</v>
       </c>
       <c r="U31">
-        <v>1614</v>
+        <v>471.50400000000002</v>
       </c>
       <c r="V31">
-        <v>1975</v>
+        <v>831.94899999999996</v>
       </c>
       <c r="W31">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-727</v>
+        <v>-265.851</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="Z31">
-        <v>-76</v>
+        <v>-112.398</v>
       </c>
       <c r="AA31">
-        <v>1186</v>
+        <v>444.17899999999997</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-38</v>
+        <v>-61.86</v>
       </c>
       <c r="D32">
-        <v>864</v>
+        <v>478.154</v>
       </c>
       <c r="E32">
-        <v>98</v>
+        <v>127.23</v>
       </c>
       <c r="F32">
-        <v>640</v>
+        <v>340.774</v>
       </c>
       <c r="G32">
-        <v>2422</v>
+        <v>1773.5619999999999</v>
       </c>
       <c r="H32">
-        <v>5134</v>
+        <v>4666.5839999999998</v>
       </c>
       <c r="I32">
-        <v>178</v>
+        <v>115.19799999999999</v>
       </c>
       <c r="J32">
-        <v>388</v>
+        <v>997.99599999999998</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1743</v>
+        <v>1467.2380000000001</v>
       </c>
       <c r="O32">
-        <v>2318</v>
+        <v>2586.723</v>
       </c>
       <c r="P32">
-        <v>438</v>
+        <v>997.99599999999998</v>
       </c>
       <c r="Q32">
-        <v>-202</v>
+        <v>-58.164000000000001</v>
       </c>
       <c r="R32">
-        <v>43312</v>
+        <v>39660</v>
       </c>
       <c r="S32">
-        <v>8900</v>
+        <v>8200</v>
       </c>
       <c r="T32">
-        <v>2816</v>
+        <v>2079.8609999999999</v>
       </c>
       <c r="U32">
-        <v>1464</v>
+        <v>413.34</v>
       </c>
       <c r="V32">
-        <v>-37</v>
+        <v>-39.302999999999997</v>
       </c>
       <c r="W32">
-        <v>-102</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-165</v>
+        <v>49.545999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>86</v>
+        <v>17.018000000000001</v>
       </c>
       <c r="AA32">
-        <v>-38</v>
+        <v>-61.86</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>-52</v>
       </c>
       <c r="D33">
-        <v>1016</v>
+        <v>462</v>
       </c>
       <c r="E33">
-        <v>77</v>
+        <v>142.97999999999999</v>
       </c>
       <c r="F33">
-        <v>774</v>
+        <v>328</v>
       </c>
       <c r="G33">
-        <v>2232</v>
+        <v>1235.836</v>
       </c>
       <c r="H33">
-        <v>4928</v>
+        <v>4105.75</v>
       </c>
       <c r="I33">
-        <v>209</v>
+        <v>131.238</v>
       </c>
       <c r="J33">
-        <v>375</v>
+        <v>998.04200000000003</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3462,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>1586</v>
+        <v>1027.7380000000001</v>
       </c>
       <c r="O33">
-        <v>2146</v>
+        <v>2151.5430000000001</v>
       </c>
       <c r="P33">
-        <v>425</v>
+        <v>999.399</v>
       </c>
       <c r="Q33">
-        <v>-309</v>
+        <v>-244</v>
       </c>
       <c r="R33">
-        <v>43404</v>
+        <v>39752</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>2782</v>
+        <v>1954.2070000000001</v>
       </c>
       <c r="U33">
-        <v>1084</v>
+        <v>169.55699999999999</v>
       </c>
       <c r="V33">
-        <v>-143</v>
+        <v>-200</v>
       </c>
       <c r="W33">
-        <v>-129</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-111</v>
+        <v>-94</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.357</v>
       </c>
       <c r="Z33">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="AA33">
-        <v>34</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="D34">
-        <v>1502</v>
+        <v>773</v>
       </c>
       <c r="E34">
-        <v>554</v>
+        <v>441.572</v>
       </c>
       <c r="F34">
-        <v>1222</v>
+        <v>619</v>
       </c>
       <c r="G34">
-        <v>2644</v>
+        <v>1569.87</v>
       </c>
       <c r="H34">
-        <v>5335</v>
+        <v>4390.0079999999998</v>
       </c>
       <c r="I34">
-        <v>400</v>
+        <v>122.544</v>
       </c>
       <c r="J34">
-        <v>363</v>
+        <v>998.08900000000006</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2001</v>
+        <v>1236.26</v>
       </c>
       <c r="O34">
-        <v>2539</v>
+        <v>2354.413</v>
       </c>
       <c r="P34">
-        <v>413</v>
+        <v>998.08900000000006</v>
       </c>
       <c r="Q34">
-        <v>-13</v>
+        <v>170</v>
       </c>
       <c r="R34">
-        <v>43496</v>
+        <v>39844</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>2796</v>
+        <v>2035.595</v>
       </c>
       <c r="U34">
-        <v>1075</v>
+        <v>338.70800000000003</v>
       </c>
       <c r="V34">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="W34">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-299</v>
+        <v>-21</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-9</v>
+        <v>99</v>
       </c>
       <c r="AA34">
-        <v>189</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>1378</v>
+        <v>485</v>
       </c>
       <c r="D35">
-        <v>3272</v>
+        <v>1417</v>
       </c>
       <c r="E35">
-        <v>262</v>
+        <v>272.67599999999999</v>
       </c>
       <c r="F35">
-        <v>2923</v>
+        <v>1268</v>
       </c>
       <c r="G35">
-        <v>4249</v>
+        <v>2219.1329999999998</v>
       </c>
       <c r="H35">
-        <v>6917</v>
+        <v>5032.9750000000004</v>
       </c>
       <c r="I35">
-        <v>383</v>
+        <v>147.66200000000001</v>
       </c>
       <c r="J35">
-        <v>398</v>
+        <v>998.13599999999997</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2291</v>
+        <v>1309.1379999999999</v>
       </c>
       <c r="O35">
-        <v>2847</v>
+        <v>2433.0880000000002</v>
       </c>
       <c r="P35">
-        <v>448</v>
+        <v>998.13599999999997</v>
       </c>
       <c r="Q35">
-        <v>1820</v>
+        <v>883</v>
       </c>
       <c r="R35">
-        <v>43585</v>
+        <v>39933</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4070</v>
+        <v>2599.8870000000002</v>
       </c>
       <c r="U35">
-        <v>2946</v>
+        <v>1222.028</v>
       </c>
       <c r="V35">
-        <v>2248</v>
+        <v>935</v>
       </c>
       <c r="W35">
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>-215</v>
+        <v>30</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>-139</v>
+        <v>-40</v>
       </c>
       <c r="AA35">
-        <v>1378</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-44</v>
+        <v>-71</v>
       </c>
       <c r="D36">
-        <v>994</v>
+        <v>457</v>
       </c>
       <c r="E36">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="F36">
-        <v>718</v>
+        <v>316</v>
       </c>
       <c r="G36">
-        <v>3594</v>
+        <v>1968</v>
       </c>
       <c r="H36">
-        <v>6283</v>
+        <v>4826</v>
       </c>
       <c r="I36">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="J36">
-        <v>386</v>
+        <v>998</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1966</v>
+        <v>1084</v>
       </c>
       <c r="O36">
-        <v>2534</v>
+        <v>2269</v>
       </c>
       <c r="P36">
-        <v>436</v>
+        <v>998</v>
       </c>
       <c r="Q36">
-        <v>-777</v>
+        <v>-543</v>
       </c>
       <c r="R36">
-        <v>43677</v>
+        <v>40025</v>
       </c>
       <c r="S36">
-        <v>9400</v>
+        <v>7800</v>
       </c>
       <c r="T36">
-        <v>3749</v>
+        <v>2557</v>
       </c>
       <c r="U36">
-        <v>2116</v>
+        <v>679</v>
       </c>
       <c r="V36">
-        <v>-122</v>
+        <v>-66</v>
       </c>
       <c r="W36">
-        <v>-127</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>-340</v>
+        <v>-26</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>-221</v>
+        <v>-248</v>
       </c>
       <c r="AA36">
-        <v>-44</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>57</v>
+        <v>-68</v>
       </c>
       <c r="D37">
-        <v>1165</v>
+        <v>474</v>
       </c>
       <c r="E37">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="F37">
-        <v>881</v>
+        <v>330</v>
       </c>
       <c r="G37">
-        <v>3162</v>
+        <v>1636</v>
       </c>
       <c r="H37">
-        <v>6183</v>
+        <v>4454</v>
       </c>
       <c r="I37">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="J37">
-        <v>373</v>
+        <v>998</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>1757</v>
+        <v>1020</v>
       </c>
       <c r="O37">
-        <v>2550</v>
+        <v>2182</v>
       </c>
       <c r="P37">
-        <v>775</v>
+        <v>998</v>
       </c>
       <c r="Q37">
-        <v>-509</v>
+        <v>-366</v>
       </c>
       <c r="R37">
-        <v>43769</v>
+        <v>40117</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3633</v>
+        <v>2272</v>
       </c>
       <c r="U37">
-        <v>1630</v>
+        <v>313</v>
       </c>
       <c r="V37">
-        <v>-127</v>
+        <v>-140</v>
       </c>
       <c r="W37">
-        <v>-141</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-325</v>
+        <v>-248</v>
       </c>
       <c r="Y37">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>2</v>
+        <v>-30</v>
       </c>
       <c r="AA37">
-        <v>57</v>
+        <v>-68</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="D38">
-        <v>1696</v>
+        <v>837</v>
       </c>
       <c r="E38">
-        <v>603</v>
+        <v>468</v>
       </c>
       <c r="F38">
-        <v>1362</v>
+        <v>675</v>
       </c>
       <c r="G38">
-        <v>3690</v>
+        <v>1916</v>
       </c>
       <c r="H38">
-        <v>6701</v>
+        <v>4778</v>
       </c>
       <c r="I38">
-        <v>455</v>
+        <v>159</v>
       </c>
       <c r="J38">
-        <v>373</v>
+        <v>998</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2204</v>
+        <v>1354</v>
       </c>
       <c r="O38">
-        <v>2974</v>
+        <v>2522</v>
       </c>
       <c r="P38">
-        <v>754</v>
+        <v>998</v>
       </c>
       <c r="Q38">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="R38">
-        <v>43861</v>
+        <v>40209</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3727</v>
+        <v>2256</v>
       </c>
       <c r="U38">
-        <v>1641</v>
+        <v>337</v>
       </c>
       <c r="V38">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="W38">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>-217</v>
+        <v>-168</v>
       </c>
       <c r="Y38">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-59</v>
       </c>
       <c r="AA38">
-        <v>240</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1084</v>
+        <v>576</v>
       </c>
       <c r="D39">
-        <v>3002</v>
+        <v>1607</v>
       </c>
       <c r="E39">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="F39">
-        <v>2581</v>
+        <v>1455</v>
       </c>
       <c r="G39">
-        <v>4862</v>
+        <v>2577</v>
       </c>
       <c r="H39">
-        <v>7764</v>
+        <v>5427</v>
       </c>
       <c r="I39">
-        <v>384</v>
+        <v>166</v>
       </c>
       <c r="J39">
-        <v>48</v>
+        <v>998</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>2713</v>
+        <v>1407</v>
       </c>
       <c r="O39">
-        <v>3024</v>
+        <v>2569</v>
       </c>
       <c r="P39">
-        <v>663</v>
+        <v>998</v>
       </c>
       <c r="Q39">
-        <v>1658</v>
+        <v>93</v>
       </c>
       <c r="R39">
-        <v>43951</v>
+        <v>40298</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>4740</v>
+        <v>2858</v>
       </c>
       <c r="U39">
-        <v>3371</v>
+        <v>430</v>
       </c>
       <c r="V39">
-        <v>1937</v>
+        <v>1044</v>
       </c>
       <c r="W39">
-        <v>-139</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-254</v>
+        <v>-19</v>
       </c>
       <c r="Y39">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>23</v>
+        <v>-895</v>
       </c>
       <c r="AA39">
-        <v>1084</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>445</v>
+        <v>-48</v>
       </c>
       <c r="D40">
-        <v>1816</v>
+        <v>537</v>
       </c>
       <c r="E40">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F40">
-        <v>1499</v>
+        <v>391</v>
       </c>
       <c r="G40">
-        <v>7980</v>
+        <v>2295</v>
       </c>
       <c r="H40">
-        <v>10931</v>
+        <v>5198</v>
       </c>
       <c r="I40">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="J40">
-        <v>2031</v>
+        <v>998</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,211 +4046,3531 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>3529</v>
+        <v>1221</v>
       </c>
       <c r="O40">
-        <v>5825</v>
+        <v>2377</v>
       </c>
       <c r="P40">
-        <v>3636</v>
+        <v>998</v>
       </c>
       <c r="Q40">
-        <v>3137</v>
+        <v>-216</v>
       </c>
       <c r="R40">
-        <v>44043</v>
+        <v>40390</v>
       </c>
       <c r="S40">
-        <v>10600</v>
+        <v>7700</v>
       </c>
       <c r="T40">
-        <v>5106</v>
+        <v>2821</v>
       </c>
       <c r="U40">
-        <v>6442</v>
+        <v>214</v>
       </c>
       <c r="V40">
-        <v>287</v>
+        <v>-151</v>
       </c>
       <c r="W40">
-        <v>-142</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>2830</v>
+        <v>-32</v>
       </c>
       <c r="Y40">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>89</v>
       </c>
       <c r="AA40">
-        <v>445</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>198</v>
+        <v>-70</v>
       </c>
       <c r="D41">
-        <v>1323</v>
+        <v>532</v>
       </c>
       <c r="E41">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="F41">
-        <v>1074</v>
+        <v>377</v>
       </c>
       <c r="G41">
-        <v>6651</v>
+        <v>2010</v>
       </c>
       <c r="H41">
-        <v>9707</v>
+        <v>4943</v>
       </c>
       <c r="I41">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="J41">
-        <v>2032</v>
+        <v>998</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2152</v>
+        <v>1136</v>
       </c>
       <c r="O41">
-        <v>4462</v>
+        <v>2328</v>
       </c>
       <c r="P41">
-        <v>2634</v>
+        <v>998</v>
       </c>
       <c r="Q41">
-        <v>-1239</v>
+        <v>-102</v>
       </c>
       <c r="R41">
-        <v>44135</v>
+        <v>40482</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5245</v>
+        <v>2615</v>
       </c>
       <c r="U41">
-        <v>5174</v>
+        <v>112</v>
       </c>
       <c r="V41">
-        <v>45</v>
+        <v>-211</v>
       </c>
       <c r="W41">
-        <v>-158</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-1153</v>
+        <v>-177</v>
       </c>
       <c r="Y41">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-12</v>
+        <v>344</v>
       </c>
       <c r="AA41">
-        <v>198</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44227</v>
+        <v>40574</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>73</v>
+      </c>
+      <c r="D42">
+        <v>878</v>
+      </c>
+      <c r="E42">
+        <v>481</v>
+      </c>
+      <c r="F42">
+        <v>703</v>
+      </c>
+      <c r="G42">
+        <v>2024</v>
+      </c>
+      <c r="H42">
+        <v>4979</v>
+      </c>
+      <c r="I42">
+        <v>199</v>
+      </c>
+      <c r="J42">
+        <v>998</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1504</v>
+      </c>
+      <c r="O42">
+        <v>2707</v>
+      </c>
+      <c r="P42">
+        <v>998</v>
+      </c>
+      <c r="Q42">
+        <v>321</v>
+      </c>
+      <c r="R42">
+        <v>40574</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2272</v>
+      </c>
+      <c r="U42">
+        <v>433</v>
+      </c>
+      <c r="V42">
+        <v>258</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-455</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>569</v>
+      </c>
+      <c r="AA42">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40663</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>688</v>
+      </c>
+      <c r="D43">
+        <v>1848</v>
+      </c>
+      <c r="E43">
+        <v>266</v>
+      </c>
+      <c r="F43">
+        <v>1684</v>
+      </c>
+      <c r="G43">
+        <v>2644</v>
+      </c>
+      <c r="H43">
+        <v>5567</v>
+      </c>
+      <c r="I43">
+        <v>196</v>
+      </c>
+      <c r="J43">
+        <v>498</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>2044</v>
+      </c>
+      <c r="O43">
+        <v>2746</v>
+      </c>
+      <c r="P43">
+        <v>998</v>
+      </c>
+      <c r="Q43">
+        <v>936</v>
+      </c>
+      <c r="R43">
+        <v>40663</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2821</v>
+      </c>
+      <c r="U43">
+        <v>1369</v>
+      </c>
+      <c r="V43">
+        <v>1138</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-184</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40755</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>171</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2254</v>
+      </c>
+      <c r="H44">
+        <v>5110</v>
+      </c>
+      <c r="I44">
+        <v>129</v>
+      </c>
+      <c r="J44">
+        <v>499</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1805</v>
+      </c>
+      <c r="O44">
+        <v>2494</v>
+      </c>
+      <c r="P44">
+        <v>999</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>40755</v>
+      </c>
+      <c r="S44">
+        <v>8000</v>
+      </c>
+      <c r="T44">
+        <v>2616</v>
+      </c>
+      <c r="U44">
+        <v>722</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>-64</v>
+      </c>
+      <c r="D45">
+        <v>575</v>
+      </c>
+      <c r="E45">
+        <v>166</v>
+      </c>
+      <c r="F45">
+        <v>411</v>
+      </c>
+      <c r="G45">
+        <v>1880</v>
+      </c>
+      <c r="H45">
+        <v>4683</v>
+      </c>
+      <c r="I45">
+        <v>168</v>
+      </c>
+      <c r="J45">
+        <v>499</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1636</v>
+      </c>
+      <c r="O45">
+        <v>2322</v>
+      </c>
+      <c r="P45">
+        <v>999</v>
+      </c>
+      <c r="Q45">
+        <v>-389</v>
+      </c>
+      <c r="R45">
+        <v>40847</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2361</v>
+      </c>
+      <c r="U45">
+        <v>333</v>
+      </c>
+      <c r="V45">
+        <v>-110</v>
+      </c>
+      <c r="W45">
+        <v>-45</v>
+      </c>
+      <c r="X45">
+        <v>-226</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-20</v>
+      </c>
+      <c r="AA45">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40939</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>118</v>
+      </c>
+      <c r="D46">
+        <v>999</v>
+      </c>
+      <c r="E46">
+        <v>592</v>
+      </c>
+      <c r="F46">
+        <v>797</v>
+      </c>
+      <c r="G46">
+        <v>2174</v>
+      </c>
+      <c r="H46">
+        <v>4962</v>
+      </c>
+      <c r="I46">
+        <v>212</v>
+      </c>
+      <c r="J46">
+        <v>499</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2053</v>
+      </c>
+      <c r="O46">
+        <v>2739</v>
+      </c>
+      <c r="P46">
+        <v>999</v>
+      </c>
+      <c r="Q46">
+        <v>-56</v>
+      </c>
+      <c r="R46">
+        <v>40939</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2223</v>
+      </c>
+      <c r="U46">
+        <v>277</v>
+      </c>
+      <c r="V46">
+        <v>260</v>
+      </c>
+      <c r="W46">
+        <v>-44</v>
+      </c>
+      <c r="X46">
+        <v>-300</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>32</v>
+      </c>
+      <c r="AA46">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>734</v>
+      </c>
+      <c r="D47">
+        <v>1926</v>
+      </c>
+      <c r="E47">
+        <v>294</v>
+      </c>
+      <c r="F47">
+        <v>1732</v>
+      </c>
+      <c r="G47">
+        <v>2330</v>
+      </c>
+      <c r="H47">
+        <v>5116</v>
+      </c>
+      <c r="I47">
+        <v>209</v>
+      </c>
+      <c r="J47">
+        <v>499</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-500</v>
+      </c>
+      <c r="N47">
+        <v>1587</v>
+      </c>
+      <c r="O47">
+        <v>2281</v>
+      </c>
+      <c r="P47">
+        <v>499</v>
+      </c>
+      <c r="Q47">
+        <v>582</v>
+      </c>
+      <c r="R47">
+        <v>41029</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2835</v>
+      </c>
+      <c r="U47">
+        <v>859</v>
+      </c>
+      <c r="V47">
+        <v>1278</v>
+      </c>
+      <c r="W47">
+        <v>-45</v>
+      </c>
+      <c r="X47">
+        <v>-679</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>16</v>
+      </c>
+      <c r="AA47">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>308</v>
+      </c>
+      <c r="E48">
+        <v>142</v>
+      </c>
+      <c r="F48">
+        <v>293</v>
+      </c>
+      <c r="G48">
+        <v>1523</v>
+      </c>
+      <c r="H48">
+        <v>4684</v>
+      </c>
+      <c r="I48">
+        <v>139</v>
+      </c>
+      <c r="J48">
+        <v>499</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1265</v>
+      </c>
+      <c r="O48">
+        <v>1940</v>
+      </c>
+      <c r="P48">
+        <v>499</v>
+      </c>
+      <c r="Q48">
+        <v>-466</v>
+      </c>
+      <c r="R48">
+        <v>41121</v>
+      </c>
+      <c r="S48">
+        <v>8500</v>
+      </c>
+      <c r="T48">
+        <v>2744</v>
+      </c>
+      <c r="U48">
+        <v>393</v>
+      </c>
+      <c r="V48">
+        <v>-182</v>
+      </c>
+      <c r="W48">
+        <v>-44</v>
+      </c>
+      <c r="X48">
+        <v>-139</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>321</v>
+      </c>
+      <c r="AA48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-19</v>
+      </c>
+      <c r="D49">
+        <v>562</v>
+      </c>
+      <c r="E49">
+        <v>184</v>
+      </c>
+      <c r="F49">
+        <v>427</v>
+      </c>
+      <c r="G49">
+        <v>1334</v>
+      </c>
+      <c r="H49">
+        <v>4494</v>
+      </c>
+      <c r="I49">
+        <v>167</v>
+      </c>
+      <c r="J49">
+        <v>499</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1074</v>
+      </c>
+      <c r="O49">
+        <v>1749</v>
+      </c>
+      <c r="P49">
+        <v>499</v>
+      </c>
+      <c r="Q49">
+        <v>-177</v>
+      </c>
+      <c r="R49">
+        <v>41213</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2745</v>
+      </c>
+      <c r="U49">
+        <v>216</v>
+      </c>
+      <c r="V49">
+        <v>-145</v>
+      </c>
+      <c r="W49">
+        <v>-50</v>
+      </c>
+      <c r="X49">
+        <v>-33</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>15</v>
+      </c>
+      <c r="AA49">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41305</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>71</v>
+      </c>
+      <c r="D50">
+        <v>884</v>
+      </c>
+      <c r="E50">
+        <v>541</v>
+      </c>
+      <c r="F50">
+        <v>723</v>
+      </c>
+      <c r="G50">
+        <v>1912</v>
+      </c>
+      <c r="H50">
+        <v>5089</v>
+      </c>
+      <c r="I50">
+        <v>213</v>
+      </c>
+      <c r="J50">
+        <v>499</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1596</v>
+      </c>
+      <c r="O50">
+        <v>2297</v>
+      </c>
+      <c r="P50">
+        <v>499</v>
+      </c>
+      <c r="Q50">
+        <v>183</v>
+      </c>
+      <c r="R50">
+        <v>41305</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2792</v>
+      </c>
+      <c r="U50">
+        <v>399</v>
+      </c>
+      <c r="V50">
+        <v>256</v>
+      </c>
+      <c r="W50">
+        <v>-51</v>
+      </c>
+      <c r="X50">
+        <v>-71</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>60</v>
+      </c>
+      <c r="AA50">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41394</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>822</v>
+      </c>
+      <c r="D51">
+        <v>2091</v>
+      </c>
+      <c r="E51">
+        <v>312</v>
+      </c>
+      <c r="F51">
+        <v>1951</v>
+      </c>
+      <c r="G51">
+        <v>2700</v>
+      </c>
+      <c r="H51">
+        <v>5810</v>
+      </c>
+      <c r="I51">
+        <v>231</v>
+      </c>
+      <c r="J51">
+        <v>499</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1546</v>
+      </c>
+      <c r="O51">
+        <v>2240</v>
+      </c>
+      <c r="P51">
+        <v>499</v>
+      </c>
+      <c r="Q51">
+        <v>1013</v>
+      </c>
+      <c r="R51">
+        <v>41394</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3570</v>
+      </c>
+      <c r="U51">
+        <v>1412</v>
+      </c>
+      <c r="V51">
+        <v>1449</v>
+      </c>
+      <c r="W51">
+        <v>-51</v>
+      </c>
+      <c r="X51">
+        <v>-90</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-306</v>
+      </c>
+      <c r="AA51">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41486</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-16</v>
+      </c>
+      <c r="D52">
+        <v>634</v>
+      </c>
+      <c r="E52">
+        <v>130</v>
+      </c>
+      <c r="F52">
+        <v>511</v>
+      </c>
+      <c r="G52">
+        <v>2396</v>
+      </c>
+      <c r="H52">
+        <v>5486</v>
+      </c>
+      <c r="I52">
+        <v>137</v>
+      </c>
+      <c r="J52">
+        <v>499</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1280</v>
+      </c>
+      <c r="O52">
+        <v>1955</v>
+      </c>
+      <c r="P52">
+        <v>499</v>
+      </c>
+      <c r="Q52">
+        <v>-403</v>
+      </c>
+      <c r="R52">
+        <v>41486</v>
+      </c>
+      <c r="S52">
+        <v>8000</v>
+      </c>
+      <c r="T52">
+        <v>3531</v>
+      </c>
+      <c r="U52">
+        <v>1009</v>
+      </c>
+      <c r="V52">
+        <v>-194</v>
+      </c>
+      <c r="W52">
+        <v>-51</v>
+      </c>
+      <c r="X52">
+        <v>-68</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-77</v>
+      </c>
+      <c r="AA52">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41578</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-11</v>
+      </c>
+      <c r="D53">
+        <v>622</v>
+      </c>
+      <c r="E53">
+        <v>137</v>
+      </c>
+      <c r="F53">
+        <v>485</v>
+      </c>
+      <c r="G53">
+        <v>1950</v>
+      </c>
+      <c r="H53">
+        <v>4068</v>
+      </c>
+      <c r="I53">
+        <v>168</v>
+      </c>
+      <c r="J53">
+        <v>499</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1153</v>
+      </c>
+      <c r="O53">
+        <v>1844</v>
+      </c>
+      <c r="P53">
+        <v>499</v>
+      </c>
+      <c r="Q53">
+        <v>-592</v>
+      </c>
+      <c r="R53">
+        <v>41578</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2224</v>
+      </c>
+      <c r="U53">
+        <v>417</v>
+      </c>
+      <c r="V53">
+        <v>-190</v>
+      </c>
+      <c r="W53">
+        <v>-55</v>
+      </c>
+      <c r="X53">
+        <v>-1350</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-13</v>
+      </c>
+      <c r="AA53">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-37</v>
+      </c>
+      <c r="D54">
+        <v>782</v>
+      </c>
+      <c r="E54">
+        <v>435</v>
+      </c>
+      <c r="F54">
+        <v>612</v>
+      </c>
+      <c r="G54">
+        <v>2541</v>
+      </c>
+      <c r="H54">
+        <v>4718</v>
+      </c>
+      <c r="I54">
+        <v>225</v>
+      </c>
+      <c r="J54">
+        <v>499</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1790</v>
+      </c>
+      <c r="O54">
+        <v>2483</v>
+      </c>
+      <c r="P54">
+        <v>499</v>
+      </c>
+      <c r="Q54">
+        <v>208</v>
+      </c>
+      <c r="R54">
+        <v>41670</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2235</v>
+      </c>
+      <c r="U54">
+        <v>625</v>
+      </c>
+      <c r="V54">
+        <v>332</v>
+      </c>
+      <c r="W54">
+        <v>-56</v>
+      </c>
+      <c r="X54">
+        <v>5</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-15</v>
+      </c>
+      <c r="AA54">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41759</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>984</v>
+      </c>
+      <c r="D55">
+        <v>2388</v>
+      </c>
+      <c r="E55">
+        <v>277</v>
+      </c>
+      <c r="F55">
+        <v>2224</v>
+      </c>
+      <c r="G55">
+        <v>3438</v>
+      </c>
+      <c r="H55">
+        <v>5610</v>
+      </c>
+      <c r="I55">
+        <v>193</v>
+      </c>
+      <c r="J55">
+        <v>499</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1683</v>
+      </c>
+      <c r="O55">
+        <v>2372</v>
+      </c>
+      <c r="P55">
+        <v>499</v>
+      </c>
+      <c r="Q55">
+        <v>949</v>
+      </c>
+      <c r="R55">
+        <v>41759</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3238</v>
+      </c>
+      <c r="U55">
+        <v>1574</v>
+      </c>
+      <c r="V55">
+        <v>1388</v>
+      </c>
+      <c r="W55">
+        <v>-54</v>
+      </c>
+      <c r="X55">
+        <v>-32</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-353</v>
+      </c>
+      <c r="AA55">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41851</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-29</v>
+      </c>
+      <c r="D56">
+        <v>451</v>
+      </c>
+      <c r="E56">
+        <v>115</v>
+      </c>
+      <c r="F56">
+        <v>319</v>
+      </c>
+      <c r="G56">
+        <v>2621</v>
+      </c>
+      <c r="H56">
+        <v>5201</v>
+      </c>
+      <c r="I56">
+        <v>145</v>
+      </c>
+      <c r="J56">
+        <v>499</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1421</v>
+      </c>
+      <c r="O56">
+        <v>2123</v>
+      </c>
+      <c r="P56">
+        <v>499</v>
+      </c>
+      <c r="Q56">
+        <v>-725</v>
+      </c>
+      <c r="R56">
+        <v>41851</v>
+      </c>
+      <c r="S56">
+        <v>8000</v>
+      </c>
+      <c r="T56">
+        <v>3078</v>
+      </c>
+      <c r="U56">
+        <v>849</v>
+      </c>
+      <c r="V56">
+        <v>-84</v>
+      </c>
+      <c r="W56">
+        <v>-55</v>
+      </c>
+      <c r="X56">
+        <v>-174</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-14</v>
+      </c>
+      <c r="AA56">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41943</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>-84</v>
+      </c>
+      <c r="D57">
+        <v>612</v>
+      </c>
+      <c r="E57">
+        <v>140</v>
+      </c>
+      <c r="F57">
+        <v>460</v>
+      </c>
+      <c r="G57">
+        <v>2437</v>
+      </c>
+      <c r="H57">
+        <v>5038</v>
+      </c>
+      <c r="I57">
+        <v>198</v>
+      </c>
+      <c r="J57">
+        <v>499</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1360</v>
+      </c>
+      <c r="O57">
+        <v>2111</v>
+      </c>
+      <c r="P57">
+        <v>499</v>
+      </c>
+      <c r="Q57">
+        <v>-307</v>
+      </c>
+      <c r="R57">
+        <v>41943</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2927</v>
+      </c>
+      <c r="U57">
+        <v>542</v>
+      </c>
+      <c r="V57">
+        <v>-118</v>
+      </c>
+      <c r="W57">
+        <v>-74</v>
+      </c>
+      <c r="X57">
+        <v>-123</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>11</v>
+      </c>
+      <c r="AA57">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-66</v>
+      </c>
+      <c r="D58">
+        <v>749</v>
+      </c>
+      <c r="E58">
+        <v>459</v>
+      </c>
+      <c r="F58">
+        <v>568</v>
+      </c>
+      <c r="G58">
+        <v>2578</v>
+      </c>
+      <c r="H58">
+        <v>5245</v>
+      </c>
+      <c r="I58">
+        <v>273</v>
+      </c>
+      <c r="J58">
+        <v>499</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2109</v>
+      </c>
+      <c r="O58">
+        <v>2891</v>
+      </c>
+      <c r="P58">
+        <v>499</v>
+      </c>
+      <c r="Q58">
+        <v>-60</v>
+      </c>
+      <c r="R58">
+        <v>42035</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2354</v>
+      </c>
+      <c r="U58">
+        <v>482</v>
+      </c>
+      <c r="V58">
+        <v>365</v>
+      </c>
+      <c r="W58">
+        <v>-69</v>
+      </c>
+      <c r="X58">
+        <v>-435</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>156</v>
+      </c>
+      <c r="AA58">
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>2135</v>
+      </c>
+      <c r="E59">
+        <v>210</v>
+      </c>
+      <c r="F59">
+        <v>1941</v>
+      </c>
+      <c r="G59">
+        <v>2867</v>
+      </c>
+      <c r="H59">
+        <v>5295</v>
+      </c>
+      <c r="I59">
+        <v>286</v>
+      </c>
+      <c r="J59">
+        <v>499</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>2126</v>
+      </c>
+      <c r="O59">
+        <v>2974</v>
+      </c>
+      <c r="P59">
+        <v>499</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>42124</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2321</v>
+      </c>
+      <c r="U59">
+        <v>1193</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42216</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>696</v>
+      </c>
+      <c r="E60">
+        <v>91</v>
+      </c>
+      <c r="F60">
+        <v>528</v>
+      </c>
+      <c r="G60">
+        <v>2560</v>
+      </c>
+      <c r="H60">
+        <v>4968</v>
+      </c>
+      <c r="I60">
+        <v>190</v>
+      </c>
+      <c r="J60">
+        <v>500</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1744</v>
+      </c>
+      <c r="O60">
+        <v>2636</v>
+      </c>
+      <c r="P60">
+        <v>500</v>
+      </c>
+      <c r="Q60">
+        <v>-385</v>
+      </c>
+      <c r="R60">
+        <v>42216</v>
+      </c>
+      <c r="S60">
+        <v>7700</v>
+      </c>
+      <c r="T60">
+        <v>2332</v>
+      </c>
+      <c r="U60">
+        <v>808</v>
+      </c>
+      <c r="V60">
+        <v>-218</v>
+      </c>
+      <c r="W60">
+        <v>-71</v>
+      </c>
+      <c r="X60">
+        <v>-71</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-31</v>
+      </c>
+      <c r="D61">
+        <v>713</v>
+      </c>
+      <c r="E61">
+        <v>124</v>
+      </c>
+      <c r="F61">
+        <v>553</v>
+      </c>
+      <c r="G61">
+        <v>1427</v>
+      </c>
+      <c r="H61">
+        <v>3833</v>
+      </c>
+      <c r="I61">
+        <v>178</v>
+      </c>
+      <c r="J61">
+        <v>500</v>
+      </c>
+      <c r="K61">
+        <v>350</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1887</v>
+      </c>
+      <c r="O61">
+        <v>2782</v>
+      </c>
+      <c r="P61">
+        <v>850</v>
+      </c>
+      <c r="Q61">
+        <v>-334</v>
+      </c>
+      <c r="R61">
+        <v>42308</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1051</v>
+      </c>
+      <c r="U61">
+        <v>474</v>
+      </c>
+      <c r="V61">
+        <v>-188</v>
+      </c>
+      <c r="W61">
+        <v>-82</v>
+      </c>
+      <c r="X61">
+        <v>-961</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>887</v>
+      </c>
+      <c r="AA61">
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>923</v>
+      </c>
+      <c r="E62">
+        <v>512</v>
+      </c>
+      <c r="F62">
+        <v>730</v>
+      </c>
+      <c r="G62">
+        <v>1467</v>
+      </c>
+      <c r="H62">
+        <v>4349</v>
+      </c>
+      <c r="I62">
+        <v>286</v>
+      </c>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2349</v>
+      </c>
+      <c r="O62">
+        <v>3708</v>
+      </c>
+      <c r="P62">
+        <v>1245</v>
+      </c>
+      <c r="Q62">
+        <v>-140</v>
+      </c>
+      <c r="R62">
+        <v>42400</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>641</v>
+      </c>
+      <c r="U62">
+        <v>334</v>
+      </c>
+      <c r="V62">
+        <v>317</v>
+      </c>
+      <c r="W62">
+        <v>-79</v>
+      </c>
+      <c r="X62">
+        <v>-124</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42490</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>2304</v>
+      </c>
+      <c r="E63">
+        <v>214</v>
+      </c>
+      <c r="F63">
+        <v>2093</v>
+      </c>
+      <c r="G63">
+        <v>2311</v>
+      </c>
+      <c r="H63">
+        <v>4940</v>
+      </c>
+      <c r="I63">
+        <v>270</v>
+      </c>
+      <c r="J63">
+        <v>500</v>
+      </c>
+      <c r="K63">
+        <v>500</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>2865</v>
+      </c>
+      <c r="O63">
+        <v>3692</v>
+      </c>
+      <c r="P63">
+        <v>1000</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>42490</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1248</v>
+      </c>
+      <c r="U63">
+        <v>1289</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>-40</v>
+      </c>
+      <c r="D64">
+        <v>754</v>
+      </c>
+      <c r="E64">
+        <v>108</v>
+      </c>
+      <c r="F64">
+        <v>588</v>
+      </c>
+      <c r="G64">
+        <v>1614</v>
+      </c>
+      <c r="H64">
+        <v>4250</v>
+      </c>
+      <c r="I64">
+        <v>184</v>
+      </c>
+      <c r="J64">
+        <v>488</v>
+      </c>
+      <c r="K64">
+        <v>512</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>2251</v>
+      </c>
+      <c r="O64">
+        <v>3089</v>
+      </c>
+      <c r="P64">
+        <v>1000</v>
+      </c>
+      <c r="Q64">
+        <v>-651</v>
+      </c>
+      <c r="R64">
+        <v>42582</v>
+      </c>
+      <c r="S64">
+        <v>7900</v>
+      </c>
+      <c r="T64">
+        <v>1161</v>
+      </c>
+      <c r="U64">
+        <v>638</v>
+      </c>
+      <c r="V64">
+        <v>-281</v>
+      </c>
+      <c r="W64">
+        <v>-80</v>
+      </c>
+      <c r="X64">
+        <v>-155</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-143</v>
+      </c>
+      <c r="AA64">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42674</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-30</v>
+      </c>
+      <c r="D65">
+        <v>778</v>
+      </c>
+      <c r="E65">
+        <v>121</v>
+      </c>
+      <c r="F65">
+        <v>598</v>
+      </c>
+      <c r="G65">
+        <v>1262</v>
+      </c>
+      <c r="H65">
+        <v>3933</v>
+      </c>
+      <c r="I65">
+        <v>165</v>
+      </c>
+      <c r="J65">
+        <v>475</v>
+      </c>
+      <c r="K65">
+        <v>625</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2181</v>
+      </c>
+      <c r="O65">
+        <v>2997</v>
+      </c>
+      <c r="P65">
+        <v>1100</v>
+      </c>
+      <c r="Q65">
+        <v>-278</v>
+      </c>
+      <c r="R65">
+        <v>42674</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>936</v>
+      </c>
+      <c r="U65">
+        <v>360</v>
+      </c>
+      <c r="V65">
+        <v>-205</v>
+      </c>
+      <c r="W65">
+        <v>-89</v>
+      </c>
+      <c r="X65">
+        <v>-166</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>195</v>
+      </c>
+      <c r="AA65">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42766</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>1016</v>
+      </c>
+      <c r="E66">
+        <v>521</v>
+      </c>
+      <c r="F66">
+        <v>813</v>
+      </c>
+      <c r="G66">
+        <v>1679</v>
+      </c>
+      <c r="H66">
+        <v>4373</v>
+      </c>
+      <c r="I66">
+        <v>258</v>
+      </c>
+      <c r="J66">
+        <v>463</v>
+      </c>
+      <c r="K66">
+        <v>650</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2803</v>
+      </c>
+      <c r="O66">
+        <v>3588</v>
+      </c>
+      <c r="P66">
+        <v>1150</v>
+      </c>
+      <c r="Q66">
+        <v>32</v>
+      </c>
+      <c r="R66">
+        <v>42766</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>785</v>
+      </c>
+      <c r="U66">
+        <v>392</v>
+      </c>
+      <c r="V66">
+        <v>292</v>
+      </c>
+      <c r="W66">
+        <v>-88</v>
+      </c>
+      <c r="X66">
+        <v>-209</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-1</v>
+      </c>
+      <c r="AA66">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42855</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>964</v>
+      </c>
+      <c r="D67">
+        <v>2541</v>
+      </c>
+      <c r="E67">
+        <v>245</v>
+      </c>
+      <c r="F67">
+        <v>2307</v>
+      </c>
+      <c r="G67">
+        <v>2255</v>
+      </c>
+      <c r="H67">
+        <v>4969</v>
+      </c>
+      <c r="I67">
+        <v>269</v>
+      </c>
+      <c r="J67">
+        <v>450</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>2494</v>
+      </c>
+      <c r="O67">
+        <v>3272</v>
+      </c>
+      <c r="P67">
+        <v>500</v>
+      </c>
+      <c r="Q67">
+        <v>958</v>
+      </c>
+      <c r="R67">
+        <v>42855</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>1697</v>
+      </c>
+      <c r="U67">
+        <v>1350</v>
+      </c>
+      <c r="V67">
+        <v>1802</v>
+      </c>
+      <c r="W67">
+        <v>-88</v>
+      </c>
+      <c r="X67">
+        <v>-774</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>2</v>
+      </c>
+      <c r="AA67">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42947</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>842</v>
+      </c>
+      <c r="E68">
+        <v>103</v>
+      </c>
+      <c r="F68">
+        <v>662</v>
+      </c>
+      <c r="G68">
+        <v>1415</v>
+      </c>
+      <c r="H68">
+        <v>4068</v>
+      </c>
+      <c r="I68">
+        <v>157</v>
+      </c>
+      <c r="J68">
+        <v>438</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1944</v>
+      </c>
+      <c r="O68">
+        <v>2714</v>
+      </c>
+      <c r="P68">
+        <v>488</v>
+      </c>
+      <c r="Q68">
+        <v>-821</v>
+      </c>
+      <c r="R68">
+        <v>42947</v>
+      </c>
+      <c r="S68">
+        <v>8200</v>
+      </c>
+      <c r="T68">
+        <v>1354</v>
+      </c>
+      <c r="U68">
+        <v>529</v>
+      </c>
+      <c r="V68">
+        <v>-290</v>
+      </c>
+      <c r="W68">
+        <v>-88</v>
+      </c>
+      <c r="X68">
+        <v>-483</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-6</v>
+      </c>
+      <c r="AA68">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43039</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-2</v>
+      </c>
+      <c r="D69">
+        <v>910</v>
+      </c>
+      <c r="E69">
+        <v>116</v>
+      </c>
+      <c r="F69">
+        <v>714</v>
+      </c>
+      <c r="G69">
+        <v>1415</v>
+      </c>
+      <c r="H69">
+        <v>4064</v>
+      </c>
+      <c r="I69">
+        <v>220</v>
+      </c>
+      <c r="J69">
+        <v>425</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>-13</v>
+      </c>
+      <c r="N69">
+        <v>2117</v>
+      </c>
+      <c r="O69">
+        <v>2861</v>
+      </c>
+      <c r="P69">
+        <v>875</v>
+      </c>
+      <c r="Q69">
+        <v>-53</v>
+      </c>
+      <c r="R69">
+        <v>43039</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1203</v>
+      </c>
+      <c r="U69">
+        <v>529</v>
+      </c>
+      <c r="V69">
+        <v>-78</v>
+      </c>
+      <c r="W69">
+        <v>-105</v>
+      </c>
+      <c r="X69">
+        <v>158</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-2</v>
+      </c>
+      <c r="AA69">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43131</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>183</v>
+      </c>
+      <c r="D70">
+        <v>1339</v>
+      </c>
+      <c r="E70">
+        <v>532</v>
+      </c>
+      <c r="F70">
+        <v>1096</v>
+      </c>
+      <c r="G70">
+        <v>1902</v>
+      </c>
+      <c r="H70">
+        <v>4898</v>
+      </c>
+      <c r="I70">
+        <v>343</v>
+      </c>
+      <c r="J70">
+        <v>413</v>
+      </c>
+      <c r="K70">
+        <v>640</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>3032</v>
+      </c>
+      <c r="O70">
+        <v>3741</v>
+      </c>
+      <c r="P70">
+        <v>1103</v>
+      </c>
+      <c r="Q70">
+        <v>52</v>
+      </c>
+      <c r="R70">
+        <v>43131</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1157</v>
+      </c>
+      <c r="U70">
+        <v>478</v>
+      </c>
+      <c r="V70">
+        <v>252</v>
+      </c>
+      <c r="W70">
+        <v>-100</v>
+      </c>
+      <c r="X70">
+        <v>100</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1186</v>
+      </c>
+      <c r="D71">
+        <v>2912</v>
+      </c>
+      <c r="E71">
+        <v>309</v>
+      </c>
+      <c r="F71">
+        <v>2612</v>
+      </c>
+      <c r="G71">
+        <v>2845</v>
+      </c>
+      <c r="H71">
+        <v>5787</v>
+      </c>
+      <c r="I71">
+        <v>325</v>
+      </c>
+      <c r="J71">
+        <v>400</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2703</v>
+      </c>
+      <c r="O71">
+        <v>3423</v>
+      </c>
+      <c r="P71">
+        <v>450</v>
+      </c>
+      <c r="Q71">
+        <v>1133</v>
+      </c>
+      <c r="R71">
+        <v>43220</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>2364</v>
+      </c>
+      <c r="U71">
+        <v>1614</v>
+      </c>
+      <c r="V71">
+        <v>1975</v>
+      </c>
+      <c r="W71">
+        <v>-100</v>
+      </c>
+      <c r="X71">
+        <v>-727</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-76</v>
+      </c>
+      <c r="AA71">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43312</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-38</v>
+      </c>
+      <c r="D72">
+        <v>864</v>
+      </c>
+      <c r="E72">
+        <v>98</v>
+      </c>
+      <c r="F72">
+        <v>640</v>
+      </c>
+      <c r="G72">
+        <v>2422</v>
+      </c>
+      <c r="H72">
+        <v>5134</v>
+      </c>
+      <c r="I72">
+        <v>178</v>
+      </c>
+      <c r="J72">
+        <v>388</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1743</v>
+      </c>
+      <c r="O72">
+        <v>2318</v>
+      </c>
+      <c r="P72">
+        <v>438</v>
+      </c>
+      <c r="Q72">
+        <v>-202</v>
+      </c>
+      <c r="R72">
+        <v>43312</v>
+      </c>
+      <c r="S72">
+        <v>8900</v>
+      </c>
+      <c r="T72">
+        <v>2816</v>
+      </c>
+      <c r="U72">
+        <v>1464</v>
+      </c>
+      <c r="V72">
+        <v>-37</v>
+      </c>
+      <c r="W72">
+        <v>-102</v>
+      </c>
+      <c r="X72">
+        <v>-165</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>86</v>
+      </c>
+      <c r="AA72">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43404</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>34</v>
+      </c>
+      <c r="D73">
+        <v>1016</v>
+      </c>
+      <c r="E73">
+        <v>77</v>
+      </c>
+      <c r="F73">
+        <v>774</v>
+      </c>
+      <c r="G73">
+        <v>2232</v>
+      </c>
+      <c r="H73">
+        <v>4928</v>
+      </c>
+      <c r="I73">
+        <v>209</v>
+      </c>
+      <c r="J73">
+        <v>375</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>-13</v>
+      </c>
+      <c r="N73">
+        <v>1586</v>
+      </c>
+      <c r="O73">
+        <v>2146</v>
+      </c>
+      <c r="P73">
+        <v>425</v>
+      </c>
+      <c r="Q73">
+        <v>-309</v>
+      </c>
+      <c r="R73">
+        <v>43404</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>2782</v>
+      </c>
+      <c r="U73">
+        <v>1084</v>
+      </c>
+      <c r="V73">
+        <v>-143</v>
+      </c>
+      <c r="W73">
+        <v>-129</v>
+      </c>
+      <c r="X73">
+        <v>-111</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>4</v>
+      </c>
+      <c r="AA73">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43496</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>189</v>
+      </c>
+      <c r="D74">
+        <v>1502</v>
+      </c>
+      <c r="E74">
+        <v>554</v>
+      </c>
+      <c r="F74">
+        <v>1222</v>
+      </c>
+      <c r="G74">
+        <v>2644</v>
+      </c>
+      <c r="H74">
+        <v>5335</v>
+      </c>
+      <c r="I74">
+        <v>400</v>
+      </c>
+      <c r="J74">
+        <v>363</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2001</v>
+      </c>
+      <c r="O74">
+        <v>2539</v>
+      </c>
+      <c r="P74">
+        <v>413</v>
+      </c>
+      <c r="Q74">
+        <v>-13</v>
+      </c>
+      <c r="R74">
+        <v>43496</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>2796</v>
+      </c>
+      <c r="U74">
+        <v>1075</v>
+      </c>
+      <c r="V74">
+        <v>341</v>
+      </c>
+      <c r="W74">
+        <v>-122</v>
+      </c>
+      <c r="X74">
+        <v>-299</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-9</v>
+      </c>
+      <c r="AA74">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43585</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>1378</v>
+      </c>
+      <c r="D75">
+        <v>3272</v>
+      </c>
+      <c r="E75">
+        <v>262</v>
+      </c>
+      <c r="F75">
+        <v>2923</v>
+      </c>
+      <c r="G75">
+        <v>4249</v>
+      </c>
+      <c r="H75">
+        <v>6917</v>
+      </c>
+      <c r="I75">
+        <v>383</v>
+      </c>
+      <c r="J75">
+        <v>398</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>2291</v>
+      </c>
+      <c r="O75">
+        <v>2847</v>
+      </c>
+      <c r="P75">
+        <v>448</v>
+      </c>
+      <c r="Q75">
+        <v>1820</v>
+      </c>
+      <c r="R75">
+        <v>43585</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4070</v>
+      </c>
+      <c r="U75">
+        <v>2946</v>
+      </c>
+      <c r="V75">
+        <v>2248</v>
+      </c>
+      <c r="W75">
+        <v>-123</v>
+      </c>
+      <c r="X75">
+        <v>-215</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-139</v>
+      </c>
+      <c r="AA75">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-44</v>
+      </c>
+      <c r="D76">
+        <v>994</v>
+      </c>
+      <c r="E76">
+        <v>87</v>
+      </c>
+      <c r="F76">
+        <v>718</v>
+      </c>
+      <c r="G76">
+        <v>3594</v>
+      </c>
+      <c r="H76">
+        <v>6283</v>
+      </c>
+      <c r="I76">
+        <v>274</v>
+      </c>
+      <c r="J76">
+        <v>386</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1966</v>
+      </c>
+      <c r="O76">
+        <v>2534</v>
+      </c>
+      <c r="P76">
+        <v>436</v>
+      </c>
+      <c r="Q76">
+        <v>-777</v>
+      </c>
+      <c r="R76">
+        <v>43677</v>
+      </c>
+      <c r="S76">
+        <v>9400</v>
+      </c>
+      <c r="T76">
+        <v>3749</v>
+      </c>
+      <c r="U76">
+        <v>2116</v>
+      </c>
+      <c r="V76">
+        <v>-122</v>
+      </c>
+      <c r="W76">
+        <v>-127</v>
+      </c>
+      <c r="X76">
+        <v>-340</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>-221</v>
+      </c>
+      <c r="AA76">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>1165</v>
+      </c>
+      <c r="E77">
+        <v>104</v>
+      </c>
+      <c r="F77">
+        <v>881</v>
+      </c>
+      <c r="G77">
+        <v>3162</v>
+      </c>
+      <c r="H77">
+        <v>6183</v>
+      </c>
+      <c r="I77">
+        <v>272</v>
+      </c>
+      <c r="J77">
+        <v>373</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>-13</v>
+      </c>
+      <c r="N77">
+        <v>1757</v>
+      </c>
+      <c r="O77">
+        <v>2550</v>
+      </c>
+      <c r="P77">
+        <v>775</v>
+      </c>
+      <c r="Q77">
+        <v>-509</v>
+      </c>
+      <c r="R77">
+        <v>43769</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3633</v>
+      </c>
+      <c r="U77">
+        <v>1630</v>
+      </c>
+      <c r="V77">
+        <v>-127</v>
+      </c>
+      <c r="W77">
+        <v>-141</v>
+      </c>
+      <c r="X77">
+        <v>-325</v>
+      </c>
+      <c r="Y77">
+        <v>297</v>
+      </c>
+      <c r="Z77">
+        <v>2</v>
+      </c>
+      <c r="AA77">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>240</v>
+      </c>
+      <c r="D78">
+        <v>1696</v>
+      </c>
+      <c r="E78">
+        <v>603</v>
+      </c>
+      <c r="F78">
+        <v>1362</v>
+      </c>
+      <c r="G78">
+        <v>3690</v>
+      </c>
+      <c r="H78">
+        <v>6701</v>
+      </c>
+      <c r="I78">
+        <v>455</v>
+      </c>
+      <c r="J78">
+        <v>373</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2204</v>
+      </c>
+      <c r="O78">
+        <v>2974</v>
+      </c>
+      <c r="P78">
+        <v>754</v>
+      </c>
+      <c r="Q78">
+        <v>59</v>
+      </c>
+      <c r="R78">
+        <v>43861</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3727</v>
+      </c>
+      <c r="U78">
+        <v>1641</v>
+      </c>
+      <c r="V78">
+        <v>317</v>
+      </c>
+      <c r="W78">
+        <v>-139</v>
+      </c>
+      <c r="X78">
+        <v>-217</v>
+      </c>
+      <c r="Y78">
+        <v>286</v>
+      </c>
+      <c r="Z78">
+        <v>1</v>
+      </c>
+      <c r="AA78">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1084</v>
+      </c>
+      <c r="D79">
+        <v>3002</v>
+      </c>
+      <c r="E79">
+        <v>219</v>
+      </c>
+      <c r="F79">
+        <v>2581</v>
+      </c>
+      <c r="G79">
+        <v>4862</v>
+      </c>
+      <c r="H79">
+        <v>7764</v>
+      </c>
+      <c r="I79">
+        <v>384</v>
+      </c>
+      <c r="J79">
+        <v>48</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>2713</v>
+      </c>
+      <c r="O79">
+        <v>3024</v>
+      </c>
+      <c r="P79">
+        <v>663</v>
+      </c>
+      <c r="Q79">
+        <v>1658</v>
+      </c>
+      <c r="R79">
+        <v>43951</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>4740</v>
+      </c>
+      <c r="U79">
+        <v>3371</v>
+      </c>
+      <c r="V79">
+        <v>1937</v>
+      </c>
+      <c r="W79">
+        <v>-139</v>
+      </c>
+      <c r="X79">
+        <v>-254</v>
+      </c>
+      <c r="Y79">
+        <v>215</v>
+      </c>
+      <c r="Z79">
+        <v>23</v>
+      </c>
+      <c r="AA79">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>445</v>
+      </c>
+      <c r="D80">
+        <v>1816</v>
+      </c>
+      <c r="E80">
+        <v>149</v>
+      </c>
+      <c r="F80">
+        <v>1499</v>
+      </c>
+      <c r="G80">
+        <v>7980</v>
+      </c>
+      <c r="H80">
+        <v>10931</v>
+      </c>
+      <c r="I80">
+        <v>305</v>
+      </c>
+      <c r="J80">
+        <v>2031</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>3529</v>
+      </c>
+      <c r="O80">
+        <v>5825</v>
+      </c>
+      <c r="P80">
+        <v>3636</v>
+      </c>
+      <c r="Q80">
+        <v>3137</v>
+      </c>
+      <c r="R80">
+        <v>44043</v>
+      </c>
+      <c r="S80">
+        <v>10600</v>
+      </c>
+      <c r="T80">
+        <v>5106</v>
+      </c>
+      <c r="U80">
+        <v>6442</v>
+      </c>
+      <c r="V80">
+        <v>287</v>
+      </c>
+      <c r="W80">
+        <v>-142</v>
+      </c>
+      <c r="X80">
+        <v>2830</v>
+      </c>
+      <c r="Y80">
+        <v>221</v>
+      </c>
+      <c r="Z80">
+        <v>-1</v>
+      </c>
+      <c r="AA80">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>198</v>
+      </c>
+      <c r="D81">
+        <v>1323</v>
+      </c>
+      <c r="E81">
+        <v>99</v>
+      </c>
+      <c r="F81">
+        <v>1074</v>
+      </c>
+      <c r="G81">
+        <v>6651</v>
+      </c>
+      <c r="H81">
+        <v>9707</v>
+      </c>
+      <c r="I81">
+        <v>256</v>
+      </c>
+      <c r="J81">
+        <v>2032</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>-1000</v>
+      </c>
+      <c r="M81">
+        <v>-13</v>
+      </c>
+      <c r="N81">
+        <v>2152</v>
+      </c>
+      <c r="O81">
+        <v>4462</v>
+      </c>
+      <c r="P81">
+        <v>2634</v>
+      </c>
+      <c r="Q81">
+        <v>-1239</v>
+      </c>
+      <c r="R81">
+        <v>44135</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5245</v>
+      </c>
+      <c r="U81">
+        <v>5174</v>
+      </c>
+      <c r="V81">
+        <v>45</v>
+      </c>
+      <c r="W81">
+        <v>-158</v>
+      </c>
+      <c r="X81">
+        <v>-1153</v>
+      </c>
+      <c r="Y81">
+        <v>228</v>
+      </c>
+      <c r="Z81">
+        <v>-12</v>
+      </c>
+      <c r="AA81">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>20</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1576</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>465</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>1223</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4094</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>14598</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>486</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2033</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2677</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5730</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2821</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-3280</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44227</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>8868</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1952</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>279</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-163</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-434</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>391</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-169</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>20</v>
       </c>
     </row>
